--- a/data/CDPR_Revenue_Analysis.xlsx
+++ b/data/CDPR_Revenue_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tosie\Desktop\projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9695D8-8552-4811-AFEA-6CB8ACC7CC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC8E00B-878C-4407-BF60-0E6C8C5FDA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1110" windowWidth="29040" windowHeight="17520" xr2:uid="{8D18EEC2-743B-47E3-8CD0-9B3567279D3C}"/>
   </bookViews>
@@ -601,51 +601,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -666,6 +621,51 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -792,7 +792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FFA52733-78C7-4C87-BE96-2903797ABA1D}" type="CELLRANGE">
+                    <a:fld id="{63EA8072-7D7E-4CA6-99D6-BBD62C6B6DA0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -825,7 +825,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDAA1080-DFB3-45F7-B06C-BFFECFC2B39D}" type="CELLRANGE">
+                    <a:fld id="{49FB80AB-2495-4BB2-A2D3-C4B109D633F0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -869,7 +869,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{106F4277-F7E2-48EB-8E48-B58D402E9713}" type="CELLRANGE">
+                    <a:fld id="{EB50AABD-241A-423B-A50D-2EF7AAB72B55}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -888,7 +888,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -933,7 +932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E253321-6AAC-4435-96D8-E77E9D707F8D}" type="CELLRANGE">
+                    <a:fld id="{3942E31F-F419-43A6-86DF-93C27F8E0C6D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -967,7 +966,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A08B42C3-E151-4E94-BB41-3A174D5BD99F}" type="CELLRANGE">
+                    <a:fld id="{DC610178-C22A-41E5-83EE-58261043C8E6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -986,7 +985,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1001,7 +999,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F38B6346-34DE-4AB1-9F27-A7F5316233F7}" type="CELLRANGE">
+                    <a:fld id="{E1A3474D-8090-462B-816C-96CC7003F23E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1020,7 +1018,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1045,7 +1042,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{922AB1DD-B378-4E27-BF51-B0151C7D36AD}" type="CELLRANGE">
+                    <a:fld id="{238420A7-2E32-4A5F-8BA0-6FBA6EA1611B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1079,7 +1076,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AECE8C09-C2EF-432B-8989-7DD7EB1A5A4F}" type="CELLRANGE">
+                    <a:fld id="{76F6E833-65F1-4D85-BC50-2F1015471A05}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1098,7 +1095,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1113,7 +1109,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28B84DC3-5351-46AE-9971-344B2FB1BBC3}" type="CELLRANGE">
+                    <a:fld id="{0E32BF52-AAEF-4046-879F-80BACDA24216}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1132,7 +1128,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1147,7 +1142,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{350F1807-9141-40D9-B394-D960E0BC98B8}" type="CELLRANGE">
+                    <a:fld id="{A5E3B66C-E14B-4A2D-AB46-E9CDBF282E6B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1166,7 +1161,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1181,7 +1175,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C766E92-36AA-4A64-8FEE-10ED8B0FEF67}" type="CELLRANGE">
+                    <a:fld id="{B73353F4-98E2-42DB-8C52-12A74D8820EA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1748,7 +1742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB7F53D2-78C4-4B6F-84BF-DF1AE60B3765}" type="CELLRANGE">
+                    <a:fld id="{51D5796D-F929-469E-8D8B-6AE26996E080}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1781,7 +1775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C72F2F14-5C69-46AC-9E05-10F417F12F55}" type="CELLRANGE">
+                    <a:fld id="{710F34AF-D1FB-44A0-B56E-285F31811EA6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1815,7 +1809,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7B9C603-CCD0-4BF9-BA04-A5DB8E182EA6}" type="CELLRANGE">
+                    <a:fld id="{F3F0F009-9972-4884-A5D8-253E0F31FFDC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1834,7 +1828,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1864,7 +1857,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{AE7DD490-C744-4ADF-B3B3-B9A779857C35}" type="CELLRANGE">
+                    <a:fld id="{1BC4BEB7-6946-4DFD-AD48-66E2DD9FDB7B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1">
@@ -1946,7 +1939,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDD93E00-8441-494D-B5A8-77CC48854FD8}" type="CELLRANGE">
+                    <a:fld id="{2F63BD57-502F-47B7-88BD-EEF7F870BD1B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1965,7 +1958,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1980,7 +1972,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A48818EC-E4BB-4B60-9542-8C5A94A87AE6}" type="CELLRANGE">
+                    <a:fld id="{050AC119-0C8E-4600-AB55-5C25612BFAF7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2014,7 +2006,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37B38BE4-8469-4F35-95F8-F14AD739EEE3}" type="CELLRANGE">
+                    <a:fld id="{7C291251-1F26-4657-9A94-482C44ADF1D6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2033,7 +2025,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2048,7 +2039,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F0FAC5C-8232-417B-B375-CF0012AB19CC}" type="CELLRANGE">
+                    <a:fld id="{15DF823B-7253-4F7F-9CFE-9B5579721F76}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2067,7 +2058,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2082,7 +2072,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95983A72-0FDF-4FB3-B52B-30E53D0F8800}" type="CELLRANGE">
+                    <a:fld id="{397BDEDD-E14D-4A56-9FA2-24E576D50AE0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2101,7 +2091,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2116,7 +2105,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05A9D5F5-CFBC-48BA-90AE-593CCCA0266D}" type="CELLRANGE">
+                    <a:fld id="{749AAAB2-15DC-421F-BDA8-E51C1CB95CA5}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2150,7 +2139,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21822C79-70E7-4DC0-BEF9-8BF40E8DB457}" type="CELLRANGE">
+                    <a:fld id="{946937F8-2DD4-4769-A514-AD4CDB26E39F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2169,7 +2158,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2184,7 +2172,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A05060E5-006D-4B28-8501-C8F9789F0B5D}" type="CELLRANGE">
+                    <a:fld id="{0926CC41-D923-49EC-88AD-D22A0B8214B3}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2203,7 +2191,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6034,24 +6021,24 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="40" customWidth="1"/>
-    <col min="7" max="7" width="11" style="40" customWidth="1"/>
-    <col min="8" max="8" width="40.42578125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="40"/>
+    <col min="1" max="1" width="6.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="11" style="25" customWidth="1"/>
+    <col min="8" max="8" width="40.42578125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="40" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6077,11 +6064,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>2014</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -6090,18 +6077,18 @@
       <c r="D2" s="3">
         <v>4801</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="29">
+      <c r="E2" s="26"/>
+      <c r="F2" s="33">
         <v>21513</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2014</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -6110,16 +6097,19 @@
       <c r="D3" s="3">
         <v>7565</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="36"/>
+      <c r="E3" s="26">
+        <f>(D3-D2)/D2</f>
+        <v>0.57571339304311597</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2014</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -6128,16 +6118,19 @@
       <c r="D4" s="3">
         <v>2775</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="36"/>
+      <c r="E4" s="26">
+        <f t="shared" ref="E4:E45" si="0">(D4-D3)/D3</f>
+        <v>-0.63317911434236618</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2014</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -6146,12 +6139,15 @@
       <c r="D5" s="3">
         <v>6372</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="26">
+        <f t="shared" si="0"/>
+        <v>1.2962162162162163</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2015</v>
       </c>
@@ -6164,18 +6160,19 @@
       <c r="D6" s="8">
         <v>2857</v>
       </c>
-      <c r="E6" s="41">
-        <v>-0.40491564257446366</v>
-      </c>
-      <c r="F6" s="29">
+      <c r="E6" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.5516321406151915</v>
+      </c>
+      <c r="F6" s="33">
         <v>630856</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="30">
         <v>28.324408497187747</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2015</v>
       </c>
@@ -6188,16 +6185,17 @@
       <c r="D7" s="3">
         <v>406248</v>
       </c>
-      <c r="E7" s="41">
-        <v>52.700991407799073</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="33"/>
+      <c r="E7" s="26">
+        <f t="shared" si="0"/>
+        <v>141.19390969548476</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>2015</v>
       </c>
@@ -6210,14 +6208,15 @@
       <c r="D8" s="3">
         <v>85022</v>
       </c>
-      <c r="E8" s="41">
-        <v>29.638558558558557</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="33"/>
+      <c r="E8" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.79071404659222932</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2015</v>
       </c>
@@ -6230,16 +6229,17 @@
       <c r="D9" s="3">
         <v>136729</v>
       </c>
-      <c r="E9" s="41">
-        <v>20.457784055241682</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="34"/>
+      <c r="E9" s="26">
+        <f t="shared" si="0"/>
+        <v>0.60816024087883136</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2016</v>
       </c>
@@ -6252,18 +6252,19 @@
       <c r="D10" s="3">
         <v>63667</v>
       </c>
-      <c r="E10" s="41">
-        <v>21.284564228211412</v>
-      </c>
-      <c r="F10" s="29">
+      <c r="E10" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.53435628140335989</v>
+      </c>
+      <c r="F10" s="33">
         <v>438763</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="30">
         <v>-0.30449579618803657</v>
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2016</v>
       </c>
@@ -6276,16 +6277,17 @@
       <c r="D11" s="3">
         <v>175537</v>
       </c>
-      <c r="E11" s="41">
-        <v>-0.56790679584884107</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="33"/>
+      <c r="E11" s="26">
+        <f t="shared" si="0"/>
+        <v>1.7571112193129879</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2016</v>
       </c>
@@ -6298,14 +6300,15 @@
       <c r="D12" s="3">
         <v>72418</v>
       </c>
-      <c r="E12" s="41">
-        <v>-0.14824398391004681</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.58744879996809785</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2016</v>
       </c>
@@ -6318,16 +6321,17 @@
       <c r="D13" s="3">
         <v>127141</v>
       </c>
-      <c r="E13" s="41">
-        <v>-7.0124114123558276E-2</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="34"/>
+      <c r="E13" s="26">
+        <f t="shared" si="0"/>
+        <v>0.75565467149051346</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>2017</v>
       </c>
@@ -6340,18 +6344,19 @@
       <c r="D14" s="3">
         <v>77710</v>
       </c>
-      <c r="E14" s="41">
-        <v>0.22056952581400097</v>
-      </c>
-      <c r="F14" s="29">
+      <c r="E14" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.38878882500530909</v>
+      </c>
+      <c r="F14" s="33">
         <v>346841</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="30">
         <v>-0.2095026244236638</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>2017</v>
       </c>
@@ -6364,14 +6369,15 @@
       <c r="D15" s="3">
         <v>121911</v>
       </c>
-      <c r="E15" s="41">
-        <v>-0.30549684681861944</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="33"/>
+      <c r="E15" s="26">
+        <f t="shared" si="0"/>
+        <v>0.56879423497619352</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2017</v>
       </c>
@@ -6384,14 +6390,15 @@
       <c r="D16" s="3">
         <v>59087</v>
       </c>
-      <c r="E16" s="41">
-        <v>-0.18408406749703113</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="33"/>
+      <c r="E16" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.51532675476372103</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2017</v>
       </c>
@@ -6404,16 +6411,17 @@
       <c r="D17" s="3">
         <v>88133</v>
       </c>
-      <c r="E17" s="41">
-        <v>-0.30680897586144518</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="34"/>
+      <c r="E17" s="26">
+        <f t="shared" si="0"/>
+        <v>0.49158021222942438</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>2018</v>
       </c>
@@ -6426,18 +6434,19 @@
       <c r="D18" s="3">
         <v>52217</v>
       </c>
-      <c r="E18" s="41">
-        <v>-0.32805301762964867</v>
-      </c>
-      <c r="F18" s="29">
+      <c r="E18" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.40752045204406978</v>
+      </c>
+      <c r="F18" s="33">
         <v>235919</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="30">
         <v>-0.31980648193264349</v>
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2018</v>
       </c>
@@ -6450,14 +6459,15 @@
       <c r="D19" s="3">
         <v>56555</v>
       </c>
-      <c r="E19" s="41">
-        <v>-0.53609600446227168</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="33"/>
+      <c r="E19" s="26">
+        <f t="shared" si="0"/>
+        <v>8.3076392745657548E-2</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2018</v>
       </c>
@@ -6470,14 +6480,15 @@
       <c r="D20" s="3">
         <v>40675</v>
       </c>
-      <c r="E20" s="41">
-        <v>-0.31160830639565384</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="33"/>
+      <c r="E20" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.28078861285474316</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>2018</v>
       </c>
@@ -6490,14 +6501,15 @@
       <c r="D21" s="3">
         <v>86472</v>
       </c>
-      <c r="E21" s="41">
-        <v>-1.8846516060953333E-2</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="34"/>
+      <c r="E21" s="26">
+        <f t="shared" si="0"/>
+        <v>1.1259250153657037</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>2019</v>
       </c>
@@ -6510,18 +6522,19 @@
       <c r="D22" s="3">
         <v>50870</v>
       </c>
-      <c r="E22" s="41">
-        <v>-2.579619664094069E-2</v>
-      </c>
-      <c r="F22" s="29">
+      <c r="E22" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.41171708761217501</v>
+      </c>
+      <c r="F22" s="33">
         <v>304475</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="30">
         <v>0.2905912622552656</v>
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>2019</v>
       </c>
@@ -6534,16 +6547,17 @@
       <c r="D23" s="3">
         <v>58905</v>
       </c>
-      <c r="E23" s="41">
-        <v>4.155247104588454E-2</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="33"/>
+      <c r="E23" s="26">
+        <f t="shared" si="0"/>
+        <v>0.15795164143896206</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>2019</v>
       </c>
@@ -6556,14 +6570,15 @@
       <c r="D24" s="3">
         <v>47147</v>
       </c>
-      <c r="E24" s="41">
-        <v>0.15911493546404426</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.19960954078601137</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>2019</v>
       </c>
@@ -6576,14 +6591,15 @@
       <c r="D25" s="3">
         <v>147553</v>
       </c>
-      <c r="E25" s="41">
-        <v>0.70636737903598856</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="34"/>
+      <c r="E25" s="26">
+        <f t="shared" si="0"/>
+        <v>2.1296370924979322</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="32"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>2020</v>
       </c>
@@ -6596,20 +6612,21 @@
       <c r="D26" s="3">
         <v>137220</v>
       </c>
-      <c r="E26" s="41">
-        <v>1.6974641242382544</v>
-      </c>
-      <c r="F26" s="29">
+      <c r="E26" s="26">
+        <f t="shared" si="0"/>
+        <v>-7.0029074298726554E-2</v>
+      </c>
+      <c r="F26" s="33">
         <v>1839932</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="30">
         <v>5.0429657607356928</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>2020</v>
       </c>
@@ -6622,16 +6639,17 @@
       <c r="D27" s="3">
         <v>100445</v>
       </c>
-      <c r="E27" s="41">
-        <v>0.70520329343858756</v>
-      </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="33"/>
+      <c r="E27" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.26800029150269639</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>2020</v>
       </c>
@@ -6644,16 +6662,17 @@
       <c r="D28" s="3">
         <v>61902</v>
       </c>
-      <c r="E28" s="41">
-        <v>0.31295734617260906</v>
-      </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="33"/>
+      <c r="E28" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.38372243516352234</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>2020</v>
       </c>
@@ -6666,16 +6685,17 @@
       <c r="D29" s="4">
         <v>1540365</v>
       </c>
-      <c r="E29" s="41">
-        <v>9.4394014354164266</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="34"/>
+      <c r="E29" s="26">
+        <f t="shared" si="0"/>
+        <v>23.883929436851798</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>2021</v>
       </c>
@@ -6688,18 +6708,19 @@
       <c r="D30" s="4">
         <v>145868</v>
       </c>
-      <c r="E30" s="41">
-        <v>6.3022882961667401E-2</v>
-      </c>
-      <c r="F30" s="29">
+      <c r="E30" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.90530296390790499</v>
+      </c>
+      <c r="F30" s="33">
         <v>691564</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="30">
         <v>-0.62413610937795527</v>
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>2021</v>
       </c>
@@ -6712,16 +6733,17 @@
       <c r="D31" s="4">
         <v>221118</v>
       </c>
-      <c r="E31" s="41">
-        <v>1.2013838419035292</v>
-      </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="33"/>
+      <c r="E31" s="26">
+        <f t="shared" si="0"/>
+        <v>0.51587736857981192</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>2021</v>
       </c>
@@ -6734,16 +6756,17 @@
       <c r="D32" s="4">
         <v>104262</v>
       </c>
-      <c r="E32" s="41">
-        <v>0.68430745371716584</v>
-      </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="33"/>
+      <c r="E32" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.52847800721786553</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>2021</v>
       </c>
@@ -6756,14 +6779,15 @@
       <c r="D33" s="4">
         <v>220316</v>
       </c>
-      <c r="E33" s="41">
-        <v>-0.85697156193499591</v>
-      </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="34"/>
+      <c r="E33" s="26">
+        <f t="shared" si="0"/>
+        <v>1.1130996911626478</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="32"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>2022</v>
       </c>
@@ -6776,20 +6800,21 @@
       <c r="D34" s="4">
         <v>173787</v>
       </c>
-      <c r="E34" s="41">
-        <v>0.19139907313461485</v>
-      </c>
-      <c r="F34" s="29">
+      <c r="E34" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.21119210588427531</v>
+      </c>
+      <c r="F34" s="33">
         <v>767499</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="30">
         <v>0.10980184046595833</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>2022</v>
       </c>
@@ -6802,16 +6827,17 @@
       <c r="D35" s="4">
         <v>112081</v>
       </c>
-      <c r="E35" s="41">
-        <v>-0.49311679736611219</v>
-      </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="33"/>
+      <c r="E35" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.35506683468844047</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="31"/>
       <c r="H35" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>2022</v>
       </c>
@@ -6824,16 +6850,17 @@
       <c r="D36" s="4">
         <v>203189</v>
       </c>
-      <c r="E36" s="41">
-        <v>0.94883083002436175</v>
-      </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="33"/>
+      <c r="E36" s="26">
+        <f t="shared" si="0"/>
+        <v>0.81287640188792032</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>2022</v>
       </c>
@@ -6846,16 +6873,17 @@
       <c r="D37" s="4">
         <v>278442</v>
       </c>
-      <c r="E37" s="41">
-        <v>0.26383013489714774</v>
-      </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="34"/>
+      <c r="E37" s="26">
+        <f t="shared" si="0"/>
+        <v>0.37035961592409039</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>2023</v>
       </c>
@@ -6868,18 +6896,19 @@
       <c r="D38" s="4">
         <v>130595</v>
       </c>
-      <c r="E38" s="41">
-        <v>-0.24853412510717143</v>
-      </c>
-      <c r="F38" s="29">
+      <c r="E38" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.53097952176754948</v>
+      </c>
+      <c r="F38" s="33">
         <v>1041784</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="30">
         <v>0.35737505846913153</v>
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>2023</v>
       </c>
@@ -6892,14 +6921,15 @@
       <c r="D39" s="4">
         <v>107489</v>
       </c>
-      <c r="E39" s="41">
-        <v>-4.0970369643382909E-2</v>
-      </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="33"/>
+      <c r="E39" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.17692867261380604</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>2023</v>
       </c>
@@ -6912,16 +6942,17 @@
       <c r="D40" s="4">
         <v>390534</v>
       </c>
-      <c r="E40" s="41">
-        <v>0.92202333787754254</v>
-      </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="33"/>
+      <c r="E40" s="26">
+        <f t="shared" si="0"/>
+        <v>2.6332461926336648</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>2023</v>
       </c>
@@ -6934,16 +6965,17 @@
       <c r="D41" s="4">
         <v>413166</v>
       </c>
-      <c r="E41" s="41">
-        <v>0.48384941926864483</v>
-      </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="34"/>
+      <c r="E41" s="26">
+        <f t="shared" si="0"/>
+        <v>5.7951420362887737E-2</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>2024</v>
       </c>
@@ -6956,18 +6988,19 @@
       <c r="D42" s="4">
         <v>185591</v>
       </c>
-      <c r="E42" s="41">
-        <v>0.42111872583176996</v>
-      </c>
-      <c r="F42" s="29">
+      <c r="E42" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.55080766568401074</v>
+      </c>
+      <c r="F42" s="33">
         <v>797396</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="30">
         <v>-0.23458605622662662</v>
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>2024</v>
       </c>
@@ -6980,14 +7013,15 @@
       <c r="D43" s="4">
         <v>157238</v>
       </c>
-      <c r="E43" s="41">
-        <v>0.46282875457023509</v>
-      </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="33"/>
+      <c r="E43" s="26">
+        <f t="shared" si="0"/>
+        <v>-0.15277141671740549</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="31"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>2024</v>
       </c>
@@ -7000,18 +7034,19 @@
       <c r="D44" s="4">
         <v>180158</v>
       </c>
-      <c r="E44" s="41">
-        <v>-0.53868805276877296</v>
-      </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="33"/>
+      <c r="E44" s="26">
+        <f t="shared" si="0"/>
+        <v>0.14576629059133289</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="31"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>2024</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -7020,21 +7055,22 @@
       <c r="D45" s="3">
         <v>274409</v>
       </c>
-      <c r="E45" s="41">
-        <v>-0.33583837973114922</v>
-      </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="34"/>
+      <c r="E45" s="26">
+        <f t="shared" si="0"/>
+        <v>0.523157450682179</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="32"/>
       <c r="H45" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>2025</v>
       </c>
@@ -7047,18 +7083,18 @@
       <c r="D48" s="12">
         <v>179832</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="27">
         <v>-3.1030599544158929E-2</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="36">
         <v>724803.4475924049</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="39">
         <v>-9.1037015996562679E-2</v>
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>2025</v>
       </c>
@@ -7071,14 +7107,14 @@
       <c r="D49" s="18">
         <v>215752.12872392911</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="28">
         <v>0.3610494961878527</v>
       </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="27"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="40"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>2025</v>
       </c>
@@ -7091,14 +7127,14 @@
       <c r="D50" s="18">
         <v>121531.06890325664</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="28">
         <v>0.36100002675542653</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="27"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="40"/>
       <c r="H50" s="16"/>
     </row>
-    <row r="51" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>2025</v>
       </c>
@@ -7111,15 +7147,15 @@
       <c r="D51" s="18">
         <v>207688.24996521923</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="28">
         <v>-0.18170719056843873</v>
       </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="28"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="19"/>
     </row>
-    <row r="52" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44">
+    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="29">
         <v>2026</v>
       </c>
       <c r="B52" s="16" t="s">
@@ -7131,19 +7167,19 @@
       <c r="D52" s="18">
         <v>148430.38993153075</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="28">
         <v>0.21185592994506547</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="36">
         <v>653194.66418511141</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G52" s="39">
         <v>-9.8797520410751238E-2</v>
       </c>
       <c r="H52" s="16"/>
     </row>
-    <row r="53" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44">
+    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="29">
         <v>2026</v>
       </c>
       <c r="B53" s="16" t="s">
@@ -7155,15 +7191,15 @@
       <c r="D53" s="18">
         <v>198087.63740002186</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="28">
         <v>-7.5556123975874731E-2</v>
       </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="27"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="40"/>
       <c r="H53" s="16"/>
     </row>
-    <row r="54" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44">
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="29">
         <v>2026</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -7175,15 +7211,15 @@
       <c r="D54" s="18">
         <v>122713.79697460329</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="28">
         <v>-0.21318964151211378</v>
       </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="27"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="40"/>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44">
+    <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29">
         <v>2026</v>
       </c>
       <c r="B55" s="16" t="s">
@@ -7195,19 +7231,19 @@
       <c r="D55" s="18">
         <v>183962.83987895545</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="28">
         <v>-4.6530060564736131E-2</v>
       </c>
-      <c r="F55" s="25"/>
-      <c r="G55" s="28"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
+    <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>2026</v>
       </c>
@@ -7220,18 +7256,18 @@
       <c r="D57" s="18">
         <v>155665.94480820085</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="28">
         <v>-0.13438128470905708</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="36">
         <v>1288316.1379912619</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="39">
         <v>0.97233108080956543</v>
       </c>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>2026</v>
       </c>
@@ -7244,16 +7280,16 @@
       <c r="D58" s="18">
         <v>755745.84061898128</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="28">
         <v>2.502843031440094</v>
       </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="27"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="40"/>
       <c r="H58" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>2026</v>
       </c>
@@ -7266,14 +7302,14 @@
       <c r="D59" s="18">
         <v>139845.525722438</v>
       </c>
-      <c r="E59" s="43">
+      <c r="E59" s="28">
         <v>0.15069773502741254</v>
       </c>
-      <c r="F59" s="24"/>
-      <c r="G59" s="27"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="16"/>
     </row>
-    <row r="60" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>2026</v>
       </c>
@@ -7286,52 +7322,53 @@
       <c r="D60" s="18">
         <v>237058.82684164197</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="28">
         <v>0.14141665155029867</v>
       </c>
-      <c r="F60" s="25"/>
-      <c r="G60" s="28"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="16"/>
     </row>
-    <row r="61" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="28">
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
     <mergeCell ref="G26:G29"/>
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="F26:F29"/>
     <mergeCell ref="F57:F60"/>
     <mergeCell ref="G57:G60"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G6:G9"/>
     <mergeCell ref="G38:G41"/>
     <mergeCell ref="G34:G37"/>
     <mergeCell ref="G30:G33"/>
@@ -7342,8 +7379,6 @@
     <mergeCell ref="G48:G51"/>
     <mergeCell ref="F52:F55"/>
     <mergeCell ref="G52:G55"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/CDPR_Revenue_Analysis.xlsx
+++ b/data/CDPR_Revenue_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tosie\Desktop\projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC8E00B-878C-4407-BF60-0E6C8C5FDA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34476DE1-16BC-4A27-924D-F743FB2B714A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1110" windowWidth="29040" windowHeight="17520" xr2:uid="{8D18EEC2-743B-47E3-8CD0-9B3567279D3C}"/>
   </bookViews>
@@ -48,7 +48,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Przychód 2026 może zbliżyć się do rekordu z 2020
+          <t xml:space="preserve">Revenue 2026 may approach 2020 record
 </t>
         </r>
       </text>
@@ -58,16 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
-  <si>
-    <t>Rok</t>
-  </si>
-  <si>
-    <t>Kwartał</t>
-  </si>
-  <si>
-    <t>Komentarz (np. ważne wydarzenia)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>Q4</t>
   </si>
@@ -87,12 +78,6 @@
     <t>Patch 1.5</t>
   </si>
   <si>
-    <t>Ogłoszenie Phantom Liberty</t>
-  </si>
-  <si>
-    <t>Przedział miesięczny</t>
-  </si>
-  <si>
     <t>01.01.2020-31.03.2020</t>
   </si>
   <si>
@@ -147,15 +132,9 @@
     <t>01.01.2025-31.03.2025</t>
   </si>
   <si>
-    <t>Peak sprzedaży dodatku i Patch 2.1</t>
-  </si>
-  <si>
     <t>Patch 2.2</t>
   </si>
   <si>
-    <t>Suma rocznych przychodów</t>
-  </si>
-  <si>
     <t>01.01.2015-31.03.2015</t>
   </si>
   <si>
@@ -192,45 +171,9 @@
     <t>01.07.2018-30.09.2018</t>
   </si>
   <si>
-    <t>Premiera Wiedźmin 3 Dziki Gon</t>
-  </si>
-  <si>
-    <t>Wersja nextgen na konsole</t>
-  </si>
-  <si>
-    <t>Premiera Cyberpunk 2077</t>
-  </si>
-  <si>
-    <t>Premiera Phantom Liberty i Patch 2.0</t>
-  </si>
-  <si>
-    <t>Start przedsprzedaży CP2077</t>
-  </si>
-  <si>
     <t>Patch 1.3</t>
   </si>
   <si>
-    <t>1 opóźnienie</t>
-  </si>
-  <si>
-    <t>2 opóźnienie</t>
-  </si>
-  <si>
-    <t>3 opóźnienie</t>
-  </si>
-  <si>
-    <t>Premiera Serce z Kamienia</t>
-  </si>
-  <si>
-    <t>Premiera Krew i Wino</t>
-  </si>
-  <si>
-    <t>Next‑Gen aktualizacje dla konsol</t>
-  </si>
-  <si>
-    <t>Przychód ze sprzedaży produktów (tyś. zł)</t>
-  </si>
-  <si>
     <t>Game of the Year Edition</t>
   </si>
   <si>
@@ -249,12 +192,6 @@
     <t>01.07.2026-30.09.2026</t>
   </si>
   <si>
-    <t>Wzrost QoQ</t>
-  </si>
-  <si>
-    <t>Wzrost YoY</t>
-  </si>
-  <si>
     <t>01.01.2014-31.03.2014</t>
   </si>
   <si>
@@ -306,28 +243,88 @@
     <t>01.10.2019-30.12.2019</t>
   </si>
   <si>
-    <t>Premiera nowego dodatku</t>
-  </si>
-  <si>
     <t>Edgerunners</t>
   </si>
   <si>
-    <t>Prognoza może różnić się w zależności od:</t>
-  </si>
-  <si>
-    <t>Terminu premiery DLC,</t>
-  </si>
-  <si>
-    <t>Jakości dodatku (metacritic),</t>
-  </si>
-  <si>
-    <t>Kondycji rynku gamingowego w 2026.</t>
-  </si>
-  <si>
-    <t>Prognoza spekulacyjna (z wyjątkiem Q1 2025) na podstawie danych historycznych z 2023-2025. Uwzględniono średni wzrost sezonowy (Q4 +20%). Scenariusz z dodatkiem zakłada wzrost o 263% w Q2 2026 (na podstawie efektu Phantom Liberty).</t>
-  </si>
-  <si>
-    <t>Prognoza z DLC</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Monthly range</t>
+  </si>
+  <si>
+    <t>QoQ growth</t>
+  </si>
+  <si>
+    <t>Total annual revenue</t>
+  </si>
+  <si>
+    <t>YoY growth</t>
+  </si>
+  <si>
+    <t>Revenue from product sales (thousand PLN)</t>
+  </si>
+  <si>
+    <t>Comment (e.g., important events)</t>
+  </si>
+  <si>
+    <t>The Witcher 3 premiere</t>
+  </si>
+  <si>
+    <t>Heart of Stone premiere</t>
+  </si>
+  <si>
+    <t>Blood and Wine premiere</t>
+  </si>
+  <si>
+    <t>Next‑Gen update for consoles</t>
+  </si>
+  <si>
+    <t>Start of CP2077 pre-sales</t>
+  </si>
+  <si>
+    <t>First delay</t>
+  </si>
+  <si>
+    <t>Second delay</t>
+  </si>
+  <si>
+    <t>Third delay</t>
+  </si>
+  <si>
+    <t>Cyberpunk 2077 premiere</t>
+  </si>
+  <si>
+    <t>Announcement Phantom Liberty</t>
+  </si>
+  <si>
+    <t>Phantom Liberty premiere and Patch 2.0</t>
+  </si>
+  <si>
+    <t>Peak sales of the DLC and Patch 2.1</t>
+  </si>
+  <si>
+    <t>Premiere of new DLC</t>
+  </si>
+  <si>
+    <t>Speculative forecast (except Q1 2025) based on historical data from 2023-2025. Seasonal average growth (Q4 +20%) is included. Scenario with addition assumes 263% growth in Q2 2026 (based on Phantom Liberty effect).</t>
+  </si>
+  <si>
+    <t>Forecast with DLC</t>
+  </si>
+  <si>
+    <t>The forecast may vary depending on:</t>
+  </si>
+  <si>
+    <t>DLC release date,</t>
+  </si>
+  <si>
+    <t>DLC quality (metacritic),</t>
+  </si>
+  <si>
+    <t>The condition of the gaming market in 2026.</t>
   </si>
 </sst>
 </file>
@@ -640,6 +637,15 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,15 +662,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,7 +725,7 @@
                 </a:solidFill>
                 <a:latin typeface="Rajdhani" panose="02000000000000000000" pitchFamily="2" charset="-18"/>
               </a:rPr>
-              <a:t>Przychód kWARTALNY PO WYDANIU CP2077</a:t>
+              <a:t>QUARTERLY REVENUE AFTER CP2077 RELEASE</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -792,7 +789,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63EA8072-7D7E-4CA6-99D6-BBD62C6B6DA0}" type="CELLRANGE">
+                    <a:fld id="{02F97794-1A38-4263-8B35-10EF4550562A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -825,7 +822,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49FB80AB-2495-4BB2-A2D3-C4B109D633F0}" type="CELLRANGE">
+                    <a:fld id="{AC24FB69-D22F-4BAB-B9DE-7278FFA965B7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -869,7 +866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB50AABD-241A-423B-A50D-2EF7AAB72B55}" type="CELLRANGE">
+                    <a:fld id="{CAB0A438-39BA-4B44-9DEE-E3BF12733334}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -888,6 +885,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -932,7 +930,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3942E31F-F419-43A6-86DF-93C27F8E0C6D}" type="CELLRANGE">
+                    <a:fld id="{2C9F55C6-99CA-4F5D-90D7-4F6EA1D2E28E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -966,83 +964,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC610178-C22A-41E5-83EE-58261043C8E6}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-619B-4034-AA38-D94D21FDA9D5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E1A3474D-8090-462B-816C-96CC7003F23E}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-619B-4034-AA38-D94D21FDA9D5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-619B-4034-AA38-D94D21FDA9D5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{238420A7-2E32-4A5F-8BA0-6FBA6EA1611B}" type="CELLRANGE">
+                    <a:fld id="{14D95C14-36CC-4F5E-ABA0-81939D4A1DBC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1065,18 +987,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-619B-4034-AA38-D94D21FDA9D5}"/>
+                  <c16:uniqueId val="{00000009-619B-4034-AA38-D94D21FDA9D5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="9"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76F6E833-65F1-4D85-BC50-2F1015471A05}" type="CELLRANGE">
+                    <a:fld id="{8B77BD92-0D90-445C-9FE9-11FA71819032}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1095,21 +1017,67 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-619B-4034-AA38-D94D21FDA9D5}"/>
+                  <c16:uniqueId val="{0000000A-619B-4034-AA38-D94D21FDA9D5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="10"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E32BF52-AAEF-4046-879F-80BACDA24216}" type="CELLRANGE">
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Phantom</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> Liberty premiere and Patch 2.0</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-619B-4034-AA38-D94D21FDA9D5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-619B-4034-AA38-D94D21FDA9D5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A185950D-E25C-4F9E-A888-AF5631594C30}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1128,21 +1096,22 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-619B-4034-AA38-D94D21FDA9D5}"/>
+                  <c16:uniqueId val="{0000000C-619B-4034-AA38-D94D21FDA9D5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="13"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5E3B66C-E14B-4A2D-AB46-E9CDBF282E6B}" type="CELLRANGE">
+                    <a:fld id="{1C9518BA-0E75-47F7-984B-9B1FF60233A8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1161,6 +1130,41 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-619B-4034-AA38-D94D21FDA9D5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9E15197D-6BEC-4E7C-AAAE-5A3FA7819BAA}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
+                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1175,7 +1179,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B73353F4-98E2-42DB-8C52-12A74D8820EA}" type="CELLRANGE">
+                    <a:fld id="{DB8B504E-9B7E-4DA4-9785-A849448C73B9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1464,22 +1468,22 @@
                     <c:v>Patch 1.3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Wersja nextgen na konsole</c:v>
+                    <c:v>Next‑Gen update for consoles</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>Patch 1.5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Ogłoszenie Phantom Liberty</c:v>
+                    <c:v>Announcement Phantom Liberty</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>Edgerunners</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Premiera Phantom Liberty i Patch 2.0</c:v>
+                    <c:v>Phantom Liberty premiere and Patch 2.0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Peak sprzedaży dodatku i Patch 2.1</c:v>
+                    <c:v>Peak sales of the DLC and Patch 2.1</c:v>
                   </c:pt>
                   <c:pt idx="15">
                     <c:v>Patch 2.2</c:v>
@@ -1679,7 +1683,7 @@
                 </a:solidFill>
                 <a:latin typeface="D-DIN Condensed" panose="020B0506030202030204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>PRZYCHÓD KWARTALNY PO WYDANIU WITCHER 3</a:t>
+              <a:t>QUARTERLY REVENUE AFTER WITCHER 3 RELEASE</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1742,7 +1746,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51D5796D-F929-469E-8D8B-6AE26996E080}" type="CELLRANGE">
+                    <a:fld id="{3E13E4A7-D81C-41CC-94B2-A61197D31D3B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1775,7 +1779,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{710F34AF-D1FB-44A0-B56E-285F31811EA6}" type="CELLRANGE">
+                    <a:fld id="{4A3B80CA-B0C0-4C5E-81C1-9A4A6A341DFA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1809,7 +1813,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3F0F009-9972-4884-A5D8-253E0F31FFDC}" type="CELLRANGE">
+                    <a:fld id="{586C87E8-706A-42CA-859C-0008A8EB7951}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1857,7 +1861,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{1BC4BEB7-6946-4DFD-AD48-66E2DD9FDB7B}" type="CELLRANGE">
+                    <a:fld id="{4A64C9D0-F4A9-4D06-BB60-1EC2DBE23699}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1">
@@ -1939,7 +1943,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F63BD57-502F-47B7-88BD-EEF7F870BD1B}" type="CELLRANGE">
+                    <a:fld id="{EAAD7C44-5BEE-4166-AD1E-DDB94433D9E6}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1972,7 +1976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{050AC119-0C8E-4600-AB55-5C25612BFAF7}" type="CELLRANGE">
+                    <a:fld id="{23A31C7B-6E20-4B3B-AFB4-C20CA87F7648}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2006,7 +2010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C291251-1F26-4657-9A94-482C44ADF1D6}" type="CELLRANGE">
+                    <a:fld id="{3E0125E4-5914-4935-9245-B3889EAA1F1F}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2039,7 +2043,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15DF823B-7253-4F7F-9CFE-9B5579721F76}" type="CELLRANGE">
+                    <a:fld id="{A0873FC1-CFD4-4241-9E3D-DC9FF163E87D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2072,7 +2076,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{397BDEDD-E14D-4A56-9FA2-24E576D50AE0}" type="CELLRANGE">
+                    <a:fld id="{5264B0B2-BDB6-47A8-80D7-A1025DD9F9DD}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2105,7 +2109,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{749AAAB2-15DC-421F-BDA8-E51C1CB95CA5}" type="CELLRANGE">
+                    <a:fld id="{394AC151-9642-44EB-A7B8-A1243ED0BEB9}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2139,7 +2143,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{946937F8-2DD4-4769-A514-AD4CDB26E39F}" type="CELLRANGE">
+                    <a:fld id="{414632CC-45EC-40C8-9A40-5B87446B6F69}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2172,7 +2176,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0926CC41-D923-49EC-88AD-D22A0B8214B3}" type="CELLRANGE">
+                    <a:fld id="{3051B2E5-B9D9-4A73-A7EA-3A1414D58D64}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2416,16 +2420,16 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="12"/>
                   <c:pt idx="1">
-                    <c:v>Premiera Serce z Kamienia</c:v>
+                    <c:v>Heart of Stone premiere</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Premiera Krew i Wino</c:v>
+                    <c:v>Blood and Wine premiere</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>Game of the Year Edition</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Next‑Gen aktualizacje dla konsol</c:v>
+                    <c:v>Next‑Gen update for consoles</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2635,11 +2639,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Prognoza bez wydania</a:t>
+              <a:t>Forecast without the release of the new</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> dodatku</a:t>
+              <a:t> DLC</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -3002,11 +3006,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Prognoza po wydaniu</a:t>
+              <a:t>Forecast after the release of the</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> dodatku</a:t>
+              <a:t> new DLC</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -3016,8 +3020,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26868744531933508"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.21751564462173262"/>
+          <c:y val="2.7777892294982932E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6021,15 +6025,15 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="25" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="25" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="25" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="25" customWidth="1"/>
     <col min="7" max="7" width="11" style="25" customWidth="1"/>
@@ -6040,28 +6044,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6069,10 +6073,10 @@
         <v>2014</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3">
         <v>4801</v>
@@ -6081,7 +6085,7 @@
       <c r="F2" s="33">
         <v>21513</v>
       </c>
-      <c r="G2" s="42"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6089,10 +6093,10 @@
         <v>2014</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3">
         <v>7565</v>
@@ -6102,7 +6106,7 @@
         <v>0.57571339304311597</v>
       </c>
       <c r="F3" s="34"/>
-      <c r="G3" s="43"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6110,10 +6114,10 @@
         <v>2014</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3">
         <v>2775</v>
@@ -6123,7 +6127,7 @@
         <v>-0.63317911434236618</v>
       </c>
       <c r="F4" s="34"/>
-      <c r="G4" s="43"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6131,10 +6135,10 @@
         <v>2014</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3">
         <v>6372</v>
@@ -6144,7 +6148,7 @@
         <v>1.2962162162162163</v>
       </c>
       <c r="F5" s="35"/>
-      <c r="G5" s="44"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6152,10 +6156,10 @@
         <v>2015</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D6" s="8">
         <v>2857</v>
@@ -6177,10 +6181,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3">
         <v>406248</v>
@@ -6192,7 +6196,7 @@
       <c r="F7" s="34"/>
       <c r="G7" s="31"/>
       <c r="H7" s="6" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6200,10 +6204,10 @@
         <v>2015</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3">
         <v>85022</v>
@@ -6221,10 +6225,10 @@
         <v>2015</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3">
         <v>136729</v>
@@ -6236,7 +6240,7 @@
       <c r="F9" s="35"/>
       <c r="G9" s="32"/>
       <c r="H9" s="6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6244,10 +6248,10 @@
         <v>2016</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3">
         <v>63667</v>
@@ -6269,10 +6273,10 @@
         <v>2016</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3">
         <v>175537</v>
@@ -6284,7 +6288,7 @@
       <c r="F11" s="34"/>
       <c r="G11" s="31"/>
       <c r="H11" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6292,10 +6296,10 @@
         <v>2016</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3">
         <v>72418</v>
@@ -6313,10 +6317,10 @@
         <v>2016</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3">
         <v>127141</v>
@@ -6328,7 +6332,7 @@
       <c r="F13" s="35"/>
       <c r="G13" s="32"/>
       <c r="H13" s="6" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6336,10 +6340,10 @@
         <v>2017</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3">
         <v>77710</v>
@@ -6361,10 +6365,10 @@
         <v>2017</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3">
         <v>121911</v>
@@ -6382,10 +6386,10 @@
         <v>2017</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3">
         <v>59087</v>
@@ -6403,10 +6407,10 @@
         <v>2017</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3">
         <v>88133</v>
@@ -6418,7 +6422,7 @@
       <c r="F17" s="35"/>
       <c r="G17" s="32"/>
       <c r="H17" s="6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6426,10 +6430,10 @@
         <v>2018</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3">
         <v>52217</v>
@@ -6451,10 +6455,10 @@
         <v>2018</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3">
         <v>56555</v>
@@ -6472,10 +6476,10 @@
         <v>2018</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D20" s="3">
         <v>40675</v>
@@ -6493,10 +6497,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3">
         <v>86472</v>
@@ -6514,10 +6518,10 @@
         <v>2019</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D22" s="3">
         <v>50870</v>
@@ -6539,10 +6543,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3">
         <v>58905</v>
@@ -6554,7 +6558,7 @@
       <c r="F23" s="34"/>
       <c r="G23" s="31"/>
       <c r="H23" s="14" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6562,10 +6566,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3">
         <v>47147</v>
@@ -6583,10 +6587,10 @@
         <v>2019</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3">
         <v>147553</v>
@@ -6604,10 +6608,10 @@
         <v>2020</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3">
         <v>137220</v>
@@ -6623,7 +6627,7 @@
         <v>5.0429657607356928</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6631,10 +6635,10 @@
         <v>2020</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D27" s="3">
         <v>100445</v>
@@ -6646,7 +6650,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="31"/>
       <c r="H27" s="6" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6654,10 +6658,10 @@
         <v>2020</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D28" s="3">
         <v>61902</v>
@@ -6669,7 +6673,7 @@
       <c r="F28" s="34"/>
       <c r="G28" s="31"/>
       <c r="H28" s="6" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6677,10 +6681,10 @@
         <v>2020</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D29" s="4">
         <v>1540365</v>
@@ -6692,7 +6696,7 @@
       <c r="F29" s="35"/>
       <c r="G29" s="32"/>
       <c r="H29" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6700,10 +6704,10 @@
         <v>2021</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" s="4">
         <v>145868</v>
@@ -6725,10 +6729,10 @@
         <v>2021</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D31" s="4">
         <v>221118</v>
@@ -6740,7 +6744,7 @@
       <c r="F31" s="34"/>
       <c r="G31" s="31"/>
       <c r="H31" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6748,10 +6752,10 @@
         <v>2021</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D32" s="4">
         <v>104262</v>
@@ -6763,7 +6767,7 @@
       <c r="F32" s="34"/>
       <c r="G32" s="31"/>
       <c r="H32" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6771,10 +6775,10 @@
         <v>2021</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D33" s="4">
         <v>220316</v>
@@ -6792,10 +6796,10 @@
         <v>2022</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D34" s="4">
         <v>173787</v>
@@ -6811,7 +6815,7 @@
         <v>0.10980184046595833</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6819,10 +6823,10 @@
         <v>2022</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D35" s="4">
         <v>112081</v>
@@ -6834,7 +6838,7 @@
       <c r="F35" s="34"/>
       <c r="G35" s="31"/>
       <c r="H35" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6842,10 +6846,10 @@
         <v>2022</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D36" s="4">
         <v>203189</v>
@@ -6857,7 +6861,7 @@
       <c r="F36" s="34"/>
       <c r="G36" s="31"/>
       <c r="H36" s="2" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6865,10 +6869,10 @@
         <v>2022</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D37" s="4">
         <v>278442</v>
@@ -6880,7 +6884,7 @@
       <c r="F37" s="35"/>
       <c r="G37" s="32"/>
       <c r="H37" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6888,10 +6892,10 @@
         <v>2023</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D38" s="4">
         <v>130595</v>
@@ -6913,10 +6917,10 @@
         <v>2023</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D39" s="4">
         <v>107489</v>
@@ -6934,10 +6938,10 @@
         <v>2023</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D40" s="4">
         <v>390534</v>
@@ -6949,7 +6953,7 @@
       <c r="F40" s="34"/>
       <c r="G40" s="31"/>
       <c r="H40" s="2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6957,10 +6961,10 @@
         <v>2023</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D41" s="4">
         <v>413166</v>
@@ -6972,7 +6976,7 @@
       <c r="F41" s="35"/>
       <c r="G41" s="32"/>
       <c r="H41" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6980,10 +6984,10 @@
         <v>2024</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D42" s="4">
         <v>185591</v>
@@ -7005,10 +7009,10 @@
         <v>2024</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D43" s="4">
         <v>157238</v>
@@ -7026,10 +7030,10 @@
         <v>2024</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D44" s="4">
         <v>180158</v>
@@ -7047,10 +7051,10 @@
         <v>2024</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D45" s="3">
         <v>274409</v>
@@ -7062,12 +7066,12 @@
       <c r="F45" s="35"/>
       <c r="G45" s="32"/>
       <c r="H45" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7075,10 +7079,10 @@
         <v>2025</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D48" s="12">
         <v>179832</v>
@@ -7086,10 +7090,10 @@
       <c r="E48" s="27">
         <v>-3.1030599544158929E-2</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="39">
         <v>724803.4475924049</v>
       </c>
-      <c r="G48" s="39">
+      <c r="G48" s="42">
         <v>-9.1037015996562679E-2</v>
       </c>
       <c r="H48" s="5"/>
@@ -7099,10 +7103,10 @@
         <v>2025</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D49" s="18">
         <v>215752.12872392911</v>
@@ -7110,8 +7114,8 @@
       <c r="E49" s="28">
         <v>0.3610494961878527</v>
       </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="43"/>
       <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7119,10 +7123,10 @@
         <v>2025</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D50" s="18">
         <v>121531.06890325664</v>
@@ -7130,8 +7134,8 @@
       <c r="E50" s="28">
         <v>0.36100002675542653</v>
       </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="43"/>
       <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7139,10 +7143,10 @@
         <v>2025</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D51" s="18">
         <v>207688.24996521923</v>
@@ -7150,8 +7154,8 @@
       <c r="E51" s="28">
         <v>-0.18170719056843873</v>
       </c>
-      <c r="F51" s="38"/>
-      <c r="G51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="44"/>
       <c r="H51" s="19"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7159,10 +7163,10 @@
         <v>2026</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D52" s="18">
         <v>148430.38993153075</v>
@@ -7170,10 +7174,10 @@
       <c r="E52" s="28">
         <v>0.21185592994506547</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="39">
         <v>653194.66418511141</v>
       </c>
-      <c r="G52" s="39">
+      <c r="G52" s="42">
         <v>-9.8797520410751238E-2</v>
       </c>
       <c r="H52" s="16"/>
@@ -7183,10 +7187,10 @@
         <v>2026</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D53" s="18">
         <v>198087.63740002186</v>
@@ -7194,8 +7198,8 @@
       <c r="E53" s="28">
         <v>-7.5556123975874731E-2</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="43"/>
       <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7203,10 +7207,10 @@
         <v>2026</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D54" s="18">
         <v>122713.79697460329</v>
@@ -7214,8 +7218,8 @@
       <c r="E54" s="28">
         <v>-0.21318964151211378</v>
       </c>
-      <c r="F54" s="37"/>
-      <c r="G54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="43"/>
       <c r="H54" s="16"/>
     </row>
     <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7223,10 +7227,10 @@
         <v>2026</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D55" s="18">
         <v>183962.83987895545</v>
@@ -7234,13 +7238,13 @@
       <c r="E55" s="28">
         <v>-4.6530060564736131E-2</v>
       </c>
-      <c r="F55" s="38"/>
-      <c r="G55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="44"/>
       <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7248,10 +7252,10 @@
         <v>2026</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D57" s="18">
         <v>155665.94480820085</v>
@@ -7259,10 +7263,10 @@
       <c r="E57" s="28">
         <v>-0.13438128470905708</v>
       </c>
-      <c r="F57" s="36">
+      <c r="F57" s="39">
         <v>1288316.1379912619</v>
       </c>
-      <c r="G57" s="39">
+      <c r="G57" s="42">
         <v>0.97233108080956543</v>
       </c>
       <c r="H57" s="16"/>
@@ -7272,10 +7276,10 @@
         <v>2026</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D58" s="18">
         <v>755745.84061898128</v>
@@ -7283,8 +7287,8 @@
       <c r="E58" s="28">
         <v>2.502843031440094</v>
       </c>
-      <c r="F58" s="37"/>
-      <c r="G58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="43"/>
       <c r="H58" s="16" t="s">
         <v>82</v>
       </c>
@@ -7294,10 +7298,10 @@
         <v>2026</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D59" s="18">
         <v>139845.525722438</v>
@@ -7305,8 +7309,8 @@
       <c r="E59" s="28">
         <v>0.15069773502741254</v>
       </c>
-      <c r="F59" s="37"/>
-      <c r="G59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="43"/>
       <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7314,10 +7318,10 @@
         <v>2026</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D60" s="18">
         <v>237058.82684164197</v>
@@ -7325,48 +7329,38 @@
       <c r="E60" s="28">
         <v>0.14141665155029867</v>
       </c>
-      <c r="F60" s="38"/>
-      <c r="G60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="44"/>
       <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="F42:F45"/>
     <mergeCell ref="G42:G45"/>
-    <mergeCell ref="F6:F9"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F26:F29"/>
     <mergeCell ref="F57:F60"/>
     <mergeCell ref="G57:G60"/>
     <mergeCell ref="G38:G41"/>
@@ -7379,6 +7373,16 @@
     <mergeCell ref="G48:G51"/>
     <mergeCell ref="F52:F55"/>
     <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G18:G21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/CDPR_Revenue_Analysis.xlsx
+++ b/data/CDPR_Revenue_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tosie\Desktop\projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34476DE1-16BC-4A27-924D-F743FB2B714A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4643F4-0EF1-43F4-9976-A4565A40FB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1110" windowWidth="29040" windowHeight="17520" xr2:uid="{8D18EEC2-743B-47E3-8CD0-9B3567279D3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D18EEC2-743B-47E3-8CD0-9B3567279D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -619,6 +619,15 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,15 +635,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,7 +789,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02F97794-1A38-4263-8B35-10EF4550562A}" type="CELLRANGE">
+                    <a:fld id="{CAECAF42-CA58-4D2A-B237-611478A13D51}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -822,7 +822,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC24FB69-D22F-4BAB-B9DE-7278FFA965B7}" type="CELLRANGE">
+                    <a:fld id="{6E908821-A8F4-4089-8CDA-052D23066816}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -885,7 +885,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -930,7 +929,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C9F55C6-99CA-4F5D-90D7-4F6EA1D2E28E}" type="CELLRANGE">
+                    <a:fld id="{22C5607E-1960-4B7E-9442-59FA7631B6B8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -983,7 +982,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1017,7 +1015,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1096,7 +1093,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1130,7 +1126,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1164,7 +1159,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1179,7 +1173,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB8B504E-9B7E-4DA4-9785-A849448C73B9}" type="CELLRANGE">
+                    <a:fld id="{DAE46517-F15E-44D1-B760-0EA68A915B4A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1746,7 +1740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E13E4A7-D81C-41CC-94B2-A61197D31D3B}" type="CELLRANGE">
+                    <a:fld id="{5AE93CF7-711A-4E41-A119-C310108652CA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1779,7 +1773,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A3B80CA-B0C0-4C5E-81C1-9A4A6A341DFA}" type="CELLRANGE">
+                    <a:fld id="{298D9E95-1F7D-42E5-B1D4-EA90E5EB5927}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1861,7 +1855,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{4A64C9D0-F4A9-4D06-BB60-1EC2DBE23699}" type="CELLRANGE">
+                    <a:fld id="{2BA197E6-76CB-4F0B-AF7D-2A80E35DF6C8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1">
@@ -1976,7 +1970,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23A31C7B-6E20-4B3B-AFB4-C20CA87F7648}" type="CELLRANGE">
+                    <a:fld id="{C8CA119E-0D25-48E0-9579-8D24913E1BE3}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2109,7 +2103,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{394AC151-9642-44EB-A7B8-A1243ED0BEB9}" type="CELLRANGE">
+                    <a:fld id="{E43A1127-276F-4A9F-975E-E1E385A9AF65}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -6025,7 +6019,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6082,7 +6076,7 @@
         <v>4801</v>
       </c>
       <c r="E2" s="26"/>
-      <c r="F2" s="33">
+      <c r="F2" s="30">
         <v>21513</v>
       </c>
       <c r="G2" s="36"/>
@@ -6102,10 +6096,9 @@
         <v>7565</v>
       </c>
       <c r="E3" s="26">
-        <f>(D3-D2)/D2</f>
         <v>0.57571339304311597</v>
       </c>
-      <c r="F3" s="34"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="37"/>
       <c r="H3" s="6"/>
     </row>
@@ -6123,10 +6116,9 @@
         <v>2775</v>
       </c>
       <c r="E4" s="26">
-        <f t="shared" ref="E4:E45" si="0">(D4-D3)/D3</f>
         <v>-0.63317911434236618</v>
       </c>
-      <c r="F4" s="34"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="37"/>
       <c r="H4" s="6"/>
     </row>
@@ -6144,10 +6136,9 @@
         <v>6372</v>
       </c>
       <c r="E5" s="26">
-        <f t="shared" si="0"/>
         <v>1.2962162162162163</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="38"/>
       <c r="H5" s="6"/>
     </row>
@@ -6165,14 +6156,13 @@
         <v>2857</v>
       </c>
       <c r="E6" s="26">
-        <f t="shared" si="0"/>
         <v>-0.5516321406151915</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="30">
         <v>630856</v>
       </c>
-      <c r="G6" s="30">
-        <v>28.324408497187747</v>
+      <c r="G6" s="33">
+        <v>28.324408497187701</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -6190,11 +6180,10 @@
         <v>406248</v>
       </c>
       <c r="E7" s="26">
-        <f t="shared" si="0"/>
         <v>141.19390969548476</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="6" t="s">
         <v>70</v>
       </c>
@@ -6213,11 +6202,10 @@
         <v>85022</v>
       </c>
       <c r="E8" s="26">
-        <f t="shared" si="0"/>
         <v>-0.79071404659222932</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6234,11 +6222,10 @@
         <v>136729</v>
       </c>
       <c r="E9" s="26">
-        <f t="shared" si="0"/>
         <v>0.60816024087883136</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="6" t="s">
         <v>71</v>
       </c>
@@ -6257,13 +6244,12 @@
         <v>63667</v>
       </c>
       <c r="E10" s="26">
-        <f t="shared" si="0"/>
         <v>-0.53435628140335989</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="30">
         <v>438763</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="33">
         <v>-0.30449579618803657</v>
       </c>
       <c r="H10" s="6"/>
@@ -6282,11 +6268,10 @@
         <v>175537</v>
       </c>
       <c r="E11" s="26">
-        <f t="shared" si="0"/>
         <v>1.7571112193129879</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="6" t="s">
         <v>72</v>
       </c>
@@ -6305,11 +6290,10 @@
         <v>72418</v>
       </c>
       <c r="E12" s="26">
-        <f t="shared" si="0"/>
         <v>-0.58744879996809785</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6326,11 +6310,10 @@
         <v>127141</v>
       </c>
       <c r="E13" s="26">
-        <f t="shared" si="0"/>
         <v>0.75565467149051346</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="6" t="s">
         <v>38</v>
       </c>
@@ -6349,13 +6332,12 @@
         <v>77710</v>
       </c>
       <c r="E14" s="26">
-        <f t="shared" si="0"/>
         <v>-0.38878882500530909</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="30">
         <v>346841</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="33">
         <v>-0.2095026244236638</v>
       </c>
       <c r="H14" s="6"/>
@@ -6374,11 +6356,10 @@
         <v>121911</v>
       </c>
       <c r="E15" s="26">
-        <f t="shared" si="0"/>
         <v>0.56879423497619352</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6395,11 +6376,10 @@
         <v>59087</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" si="0"/>
         <v>-0.51532675476372103</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6416,11 +6396,10 @@
         <v>88133</v>
       </c>
       <c r="E17" s="26">
-        <f t="shared" si="0"/>
         <v>0.49158021222942438</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="6" t="s">
         <v>73</v>
       </c>
@@ -6439,13 +6418,12 @@
         <v>52217</v>
       </c>
       <c r="E18" s="26">
-        <f t="shared" si="0"/>
         <v>-0.40752045204406978</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="30">
         <v>235919</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="33">
         <v>-0.31980648193264349</v>
       </c>
       <c r="H18" s="6"/>
@@ -6464,11 +6442,10 @@
         <v>56555</v>
       </c>
       <c r="E19" s="26">
-        <f t="shared" si="0"/>
         <v>8.3076392745657548E-2</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6485,11 +6462,10 @@
         <v>40675</v>
       </c>
       <c r="E20" s="26">
-        <f t="shared" si="0"/>
         <v>-0.28078861285474316</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6506,11 +6482,10 @@
         <v>86472</v>
       </c>
       <c r="E21" s="26">
-        <f t="shared" si="0"/>
         <v>1.1259250153657037</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6527,13 +6502,12 @@
         <v>50870</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" si="0"/>
         <v>-0.41171708761217501</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="30">
         <v>304475</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="33">
         <v>0.2905912622552656</v>
       </c>
       <c r="H22" s="6"/>
@@ -6552,11 +6526,10 @@
         <v>58905</v>
       </c>
       <c r="E23" s="26">
-        <f t="shared" si="0"/>
         <v>0.15795164143896206</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="14" t="s">
         <v>74</v>
       </c>
@@ -6575,11 +6548,10 @@
         <v>47147</v>
       </c>
       <c r="E24" s="26">
-        <f t="shared" si="0"/>
         <v>-0.19960954078601137</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6596,11 +6568,10 @@
         <v>147553</v>
       </c>
       <c r="E25" s="26">
-        <f t="shared" si="0"/>
         <v>2.1296370924979322</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6617,13 +6588,12 @@
         <v>137220</v>
       </c>
       <c r="E26" s="26">
-        <f t="shared" si="0"/>
         <v>-7.0029074298726554E-2</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="30">
         <v>1839932</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="33">
         <v>5.0429657607356928</v>
       </c>
       <c r="H26" s="14" t="s">
@@ -6644,11 +6614,10 @@
         <v>100445</v>
       </c>
       <c r="E27" s="26">
-        <f t="shared" si="0"/>
         <v>-0.26800029150269639</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="6" t="s">
         <v>76</v>
       </c>
@@ -6667,11 +6636,10 @@
         <v>61902</v>
       </c>
       <c r="E28" s="26">
-        <f t="shared" si="0"/>
         <v>-0.38372243516352234</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="6" t="s">
         <v>77</v>
       </c>
@@ -6690,11 +6658,10 @@
         <v>1540365</v>
       </c>
       <c r="E29" s="26">
-        <f t="shared" si="0"/>
         <v>23.883929436851798</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="35"/>
       <c r="H29" s="2" t="s">
         <v>78</v>
       </c>
@@ -6713,13 +6680,12 @@
         <v>145868</v>
       </c>
       <c r="E30" s="26">
-        <f t="shared" si="0"/>
         <v>-0.90530296390790499</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="30">
         <v>691564</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="33">
         <v>-0.62413610937795527</v>
       </c>
       <c r="H30" s="2"/>
@@ -6738,11 +6704,10 @@
         <v>221118</v>
       </c>
       <c r="E31" s="26">
-        <f t="shared" si="0"/>
         <v>0.51587736857981192</v>
       </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="2" t="s">
         <v>3</v>
       </c>
@@ -6761,11 +6726,10 @@
         <v>104262</v>
       </c>
       <c r="E32" s="26">
-        <f t="shared" si="0"/>
         <v>-0.52847800721786553</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="2" t="s">
         <v>37</v>
       </c>
@@ -6784,11 +6748,10 @@
         <v>220316</v>
       </c>
       <c r="E33" s="26">
-        <f t="shared" si="0"/>
         <v>1.1130996911626478</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6805,13 +6768,12 @@
         <v>173787</v>
       </c>
       <c r="E34" s="26">
-        <f t="shared" si="0"/>
         <v>-0.21119210588427531</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="30">
         <v>767499</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="33">
         <v>0.10980184046595833</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -6832,11 +6794,10 @@
         <v>112081</v>
       </c>
       <c r="E35" s="26">
-        <f t="shared" si="0"/>
         <v>-0.35506683468844047</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="34"/>
       <c r="H35" s="2" t="s">
         <v>5</v>
       </c>
@@ -6855,11 +6816,10 @@
         <v>203189</v>
       </c>
       <c r="E36" s="26">
-        <f t="shared" si="0"/>
         <v>0.81287640188792032</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="34"/>
       <c r="H36" s="2" t="s">
         <v>79</v>
       </c>
@@ -6878,11 +6838,10 @@
         <v>278442</v>
       </c>
       <c r="E37" s="26">
-        <f t="shared" si="0"/>
         <v>0.37035961592409039</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="2" t="s">
         <v>61</v>
       </c>
@@ -6901,13 +6860,12 @@
         <v>130595</v>
       </c>
       <c r="E38" s="26">
-        <f t="shared" si="0"/>
         <v>-0.53097952176754948</v>
       </c>
-      <c r="F38" s="33">
+      <c r="F38" s="30">
         <v>1041784</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="33">
         <v>0.35737505846913153</v>
       </c>
       <c r="H38" s="2"/>
@@ -6926,11 +6884,10 @@
         <v>107489</v>
       </c>
       <c r="E39" s="26">
-        <f t="shared" si="0"/>
         <v>-0.17692867261380604</v>
       </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="34"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6947,11 +6904,10 @@
         <v>390534</v>
       </c>
       <c r="E40" s="26">
-        <f t="shared" si="0"/>
         <v>2.6332461926336648</v>
       </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="34"/>
       <c r="H40" s="2" t="s">
         <v>80</v>
       </c>
@@ -6970,11 +6926,10 @@
         <v>413166</v>
       </c>
       <c r="E41" s="26">
-        <f t="shared" si="0"/>
         <v>5.7951420362887737E-2</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="35"/>
       <c r="H41" s="2" t="s">
         <v>81</v>
       </c>
@@ -6993,13 +6948,12 @@
         <v>185591</v>
       </c>
       <c r="E42" s="26">
-        <f t="shared" si="0"/>
         <v>-0.55080766568401074</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="30">
         <v>797396</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="33">
         <v>-0.23458605622662662</v>
       </c>
       <c r="H42" s="2"/>
@@ -7018,11 +6972,10 @@
         <v>157238</v>
       </c>
       <c r="E43" s="26">
-        <f t="shared" si="0"/>
         <v>-0.15277141671740549</v>
       </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="34"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7039,11 +6992,10 @@
         <v>180158</v>
       </c>
       <c r="E44" s="26">
-        <f t="shared" si="0"/>
         <v>0.14576629059133289</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="34"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7060,11 +7012,10 @@
         <v>274409</v>
       </c>
       <c r="E45" s="26">
-        <f t="shared" si="0"/>
         <v>0.523157450682179</v>
       </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="35"/>
       <c r="H45" s="6" t="s">
         <v>24</v>
       </c>
@@ -7355,12 +7306,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G6:G9"/>
     <mergeCell ref="F57:F60"/>
     <mergeCell ref="G57:G60"/>
     <mergeCell ref="G38:G41"/>
@@ -7373,6 +7318,12 @@
     <mergeCell ref="G48:G51"/>
     <mergeCell ref="F52:F55"/>
     <mergeCell ref="G52:G55"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G6:G9"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="F14:F17"/>

--- a/data/CDPR_Revenue_Analysis.xlsx
+++ b/data/CDPR_Revenue_Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tosie\Desktop\projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tosie\Documents\GitHub\cdpr-data-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4643F4-0EF1-43F4-9976-A4565A40FB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A040A42-FB77-4439-9B32-1929DA40BDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D18EEC2-743B-47E3-8CD0-9B3567279D3C}"/>
   </bookViews>
@@ -334,7 +334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\+0.0%;\-0.0%;0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,33 +351,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial CE"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -403,9 +379,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -527,142 +510,139 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -822,7 +802,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E908821-A8F4-4089-8CDA-052D23066816}" type="CELLRANGE">
+                    <a:fld id="{4A3B995C-EAEA-428F-A03C-41038028AD78}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -867,7 +847,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{CAB0A438-39BA-4B44-9DEE-E3BF12733334}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
                     </a:fld>
@@ -929,7 +909,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22C5607E-1960-4B7E-9442-59FA7631B6B8}" type="CELLRANGE">
+                    <a:fld id="{249A4790-0730-4183-BF43-A13FFB711F74}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -964,7 +944,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{14D95C14-36CC-4F5E-ABA0-81939D4A1DBC}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
                     </a:fld>
@@ -997,7 +977,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{8B77BD92-0D90-445C-9FE9-11FA71819032}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
                     </a:fld>
@@ -1075,7 +1055,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{A185950D-E25C-4F9E-A888-AF5631594C30}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
                     </a:fld>
@@ -1108,7 +1088,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{1C9518BA-0E75-47F7-984B-9B1FF60233A8}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
                     </a:fld>
@@ -1141,7 +1121,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{9E15197D-6BEC-4E7C-AAAE-5A3FA7819BAA}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
                     </a:fld>
@@ -1173,7 +1153,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAE46517-F15E-44D1-B760-0EA68A915B4A}" type="CELLRANGE">
+                    <a:fld id="{6A2BCF2D-5D6E-4321-88D0-935EE4828D56}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1773,7 +1753,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{298D9E95-1F7D-42E5-B1D4-EA90E5EB5927}" type="CELLRANGE">
+                    <a:fld id="{8AB21BFC-2447-4E66-941E-3DB6A4E95DFF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -1808,7 +1788,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{586C87E8-706A-42CA-859C-0008A8EB7951}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
                     </a:fld>
@@ -1855,7 +1835,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{2BA197E6-76CB-4F0B-AF7D-2A80E35DF6C8}" type="CELLRANGE">
+                    <a:fld id="{076CA3C0-10FD-4272-ABC3-4F6F406A12CF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1">
@@ -1938,7 +1918,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{EAAD7C44-5BEE-4166-AD1E-DDB94433D9E6}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
                     </a:fld>
@@ -1970,7 +1950,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8CA119E-0D25-48E0-9579-8D24913E1BE3}" type="CELLRANGE">
+                    <a:fld id="{7CB6F364-CAFE-4391-8F69-02E3F842AB3C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2005,7 +1985,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{3E0125E4-5914-4935-9245-B3889EAA1F1F}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
                     </a:fld>
@@ -2038,7 +2018,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{A0873FC1-CFD4-4241-9E3D-DC9FF163E87D}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
                     </a:fld>
@@ -2071,7 +2051,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{5264B0B2-BDB6-47A8-80D7-A1025DD9F9DD}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
                     </a:fld>
@@ -2103,7 +2083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E43A1127-276F-4A9F-975E-E1E385A9AF65}" type="CELLRANGE">
+                    <a:fld id="{30E39082-2D8D-4A8B-8ED0-9E91AA190DB7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
@@ -2138,7 +2118,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{414632CC-45EC-40C8-9A40-5B87446B6F69}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
                     </a:fld>
@@ -2171,7 +2151,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{3051B2E5-B9D9-4A73-A7EA-3A1414D58D64}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZAKRES KOMÓREK]</a:t>
                     </a:fld>
@@ -6018,1294 +5998,1308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35AC366-2D3E-4E52-ABAC-A0D15C43BCFC}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="11" style="25" customWidth="1"/>
-    <col min="8" max="8" width="40.42578125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="6" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="11" style="27" customWidth="1"/>
+    <col min="8" max="8" width="39.140625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="6">
         <v>2014</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>4801</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="30">
+      <c r="E2" s="10"/>
+      <c r="F2" s="11">
         <v>21513</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="6">
         <v>2014</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="9">
         <v>7565</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="10">
         <v>0.57571339304311597</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="6">
         <v>2014</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="9">
         <v>2775</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="10">
         <v>-0.63317911434236618</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="6">
         <v>2014</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="9">
         <v>6372</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="10">
         <v>1.2962162162162163</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="18">
         <v>2015</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="20">
         <v>2857</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="10">
         <v>-0.5516321406151915</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="11">
         <v>630856</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="21">
         <v>28.324408497187701</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="18">
         <v>2015</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9">
         <v>406248</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="10">
         <v>141.19390969548476</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="18">
         <v>2015</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9">
         <v>85022</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="10">
         <v>-0.79071404659222932</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="18">
         <v>2015</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>136729</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="10">
         <v>0.60816024087883136</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="6" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="18">
         <v>2016</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="9">
         <v>63667</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="10">
         <v>-0.53435628140335989</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="11">
         <v>438763</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="21">
         <v>-0.30449579618803657</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="18">
         <v>2016</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="9">
         <v>175537</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="10">
         <v>1.7571112193129879</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="18">
         <v>2016</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="9">
         <v>72418</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="10">
         <v>-0.58744879996809785</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="18">
         <v>2016</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="9">
         <v>127141</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="10">
         <v>0.75565467149051346</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="6" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="18">
         <v>2017</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="9">
         <v>77710</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="10">
         <v>-0.38878882500530909</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="11">
         <v>346841</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="21">
         <v>-0.2095026244236638</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="18">
         <v>2017</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="9">
         <v>121911</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="10">
         <v>0.56879423497619352</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="18">
         <v>2017</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="9">
         <v>59087</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="10">
         <v>-0.51532675476372103</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="6"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="18">
         <v>2017</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="9">
         <v>88133</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="10">
         <v>0.49158021222942438</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="6" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="18">
         <v>2018</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="9">
         <v>52217</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="10">
         <v>-0.40752045204406978</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="11">
         <v>235919</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="21">
         <v>-0.31980648193264349</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="18">
         <v>2018</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="9">
         <v>56555</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="10">
         <v>8.3076392745657548E-2</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="6"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="6">
         <v>2018</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="9">
         <v>40675</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="10">
         <v>-0.28078861285474316</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="6"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="18">
         <v>2018</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="9">
         <v>86472</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="10">
         <v>1.1259250153657037</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="6"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="6">
         <v>2019</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="9">
         <v>50870</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="10">
         <v>-0.41171708761217501</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="11">
         <v>304475</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="21">
         <v>0.2905912622552656</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="6">
         <v>2019</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="9">
         <v>58905</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="10">
         <v>0.15795164143896206</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="14" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="6">
         <v>2019</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="9">
         <v>47147</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="10">
         <v>-0.19960954078601137</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="6"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="6">
         <v>2019</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="9">
         <v>147553</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="10">
         <v>2.1296370924979322</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="6"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="18">
         <v>2020</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="9">
         <v>137220</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="10">
         <v>-7.0029074298726554E-2</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="11">
         <v>1839932</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="21">
         <v>5.0429657607356928</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="18">
         <v>2020</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="9">
         <v>100445</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="10">
         <v>-0.26800029150269639</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="6" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="18">
         <v>2020</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="9">
         <v>61902</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="10">
         <v>-0.38372243516352234</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="6" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="18">
         <v>2020</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="25">
         <v>1540365</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="10">
         <v>23.883929436851798</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="2" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="18">
         <v>2021</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="25">
         <v>145868</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="10">
         <v>-0.90530296390790499</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="11">
         <v>691564</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="21">
         <v>-0.62413610937795527</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="18">
         <v>2021</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="25">
         <v>221118</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="10">
         <v>0.51587736857981192</v>
       </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="2" t="s">
+      <c r="F31" s="14"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="18">
         <v>2021</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="25">
         <v>104262</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="10">
         <v>-0.52847800721786553</v>
       </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="2" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="18">
         <v>2021</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="25">
         <v>220316</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="10">
         <v>1.1130996911626478</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="2"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="18">
         <v>2022</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="25">
         <v>173787</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="10">
         <v>-0.21119210588427531</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="11">
         <v>767499</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="21">
         <v>0.10980184046595833</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="26" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="18">
         <v>2022</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="25">
         <v>112081</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="10">
         <v>-0.35506683468844047</v>
       </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="2" t="s">
+      <c r="F35" s="14"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="18">
         <v>2022</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="25">
         <v>203189</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="10">
         <v>0.81287640188792032</v>
       </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="2" t="s">
+      <c r="F36" s="14"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="26" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="A37" s="18">
         <v>2022</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="25">
         <v>278442</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="10">
         <v>0.37035961592409039</v>
       </c>
-      <c r="F37" s="32"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="2" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="18">
         <v>2023</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="25">
         <v>130595</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="10">
         <v>-0.53097952176754948</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="11">
         <v>1041784</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="21">
         <v>0.35737505846913153</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="18">
         <v>2023</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="25">
         <v>107489</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="10">
         <v>-0.17692867261380604</v>
       </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="2"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="A40" s="18">
         <v>2023</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="25">
         <v>390534</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="10">
         <v>2.6332461926336648</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="2" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="A41" s="18">
         <v>2023</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="25">
         <v>413166</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="10">
         <v>5.7951420362887737E-2</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="2" t="s">
+      <c r="F41" s="16"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="26" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="A42" s="18">
         <v>2024</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="25">
         <v>185591</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="10">
         <v>-0.55080766568401074</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="11">
         <v>797396</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="21">
         <v>-0.23458605622662662</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="A43" s="18">
         <v>2024</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="25">
         <v>157238</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="10">
         <v>-0.15277141671740549</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="2"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="A44" s="18">
         <v>2024</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="25">
         <v>180158</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="10">
         <v>0.14576629059133289</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="2"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="A45" s="6">
         <v>2024</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="9">
         <v>274409</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="10">
         <v>0.523157450682179</v>
       </c>
-      <c r="F45" s="32"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="6" t="s">
+      <c r="F45" s="16"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48" s="28">
         <v>2025</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="29">
         <v>179832</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="30">
         <v>-3.1030599544158929E-2</v>
       </c>
-      <c r="F48" s="39">
+      <c r="F48" s="31">
         <v>724803.4475924049</v>
       </c>
-      <c r="G48" s="42">
+      <c r="G48" s="32">
         <v>-9.1037015996562679E-2</v>
       </c>
-      <c r="H48" s="5"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21">
+      <c r="A49" s="33">
         <v>2025</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="36">
         <v>215752.12872392911</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="37">
         <v>0.3610494961878527</v>
       </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="16"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="34"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
+      <c r="A50" s="33">
         <v>2025</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="36">
         <v>121531.06890325664</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="37">
         <v>0.36100002675542653</v>
       </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="16"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="34"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
+      <c r="A51" s="33">
         <v>2025</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="36">
         <v>207688.24996521923</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="37">
         <v>-0.18170719056843873</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="19"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29">
+      <c r="A52" s="43">
         <v>2026</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="36">
         <v>148430.38993153075</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="37">
         <v>0.21185592994506547</v>
       </c>
-      <c r="F52" s="39">
+      <c r="F52" s="31">
         <v>653194.66418511141</v>
       </c>
-      <c r="G52" s="42">
+      <c r="G52" s="32">
         <v>-9.8797520410751238E-2</v>
       </c>
-      <c r="H52" s="16"/>
+      <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="29">
+      <c r="A53" s="43">
         <v>2026</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="36">
         <v>198087.63740002186</v>
       </c>
-      <c r="E53" s="28">
+      <c r="E53" s="37">
         <v>-7.5556123975874731E-2</v>
       </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="16"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="34"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29">
+      <c r="A54" s="43">
         <v>2026</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="36">
         <v>122713.79697460329</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="37">
         <v>-0.21318964151211378</v>
       </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="16"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="34"/>
     </row>
     <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29">
+      <c r="A55" s="43">
         <v>2026</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="36">
         <v>183962.83987895545</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E55" s="37">
         <v>-4.6530060564736131E-2</v>
       </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="16"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="34"/>
     </row>
     <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21">
+      <c r="A57" s="33">
         <v>2026</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="36">
         <v>155665.94480820085</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="37">
         <v>-0.13438128470905708</v>
       </c>
-      <c r="F57" s="39">
+      <c r="F57" s="31">
         <v>1288316.1379912619</v>
       </c>
-      <c r="G57" s="42">
+      <c r="G57" s="32">
         <v>0.97233108080956543</v>
       </c>
-      <c r="H57" s="16"/>
+      <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21">
+      <c r="A58" s="33">
         <v>2026</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="36">
         <v>755745.84061898128</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58" s="37">
         <v>2.502843031440094</v>
       </c>
-      <c r="F58" s="40"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="16" t="s">
+      <c r="F58" s="38"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="34" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21">
+      <c r="A59" s="33">
         <v>2026</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="36">
         <v>139845.525722438</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="37">
         <v>0.15069773502741254</v>
       </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="16"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="34"/>
     </row>
     <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21">
+      <c r="A60" s="33">
         <v>2026</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="36">
         <v>237058.82684164197</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="37">
         <v>0.14141665155029867</v>
       </c>
-      <c r="F60" s="41"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="16"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="34"/>
     </row>
     <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="1" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="F14:F17"/>
     <mergeCell ref="F57:F60"/>
     <mergeCell ref="G57:G60"/>
     <mergeCell ref="G38:G41"/>
@@ -7320,20 +7314,6 @@
     <mergeCell ref="G52:G55"/>
     <mergeCell ref="F42:F45"/>
     <mergeCell ref="G42:G45"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G18:G21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/CDPR_Revenue_Analysis.xlsx
+++ b/data/CDPR_Revenue_Analysis.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tosie\Documents\GitHub\cdpr-data-analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tosie\Desktop\projekt\CDPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A040A42-FB77-4439-9B32-1929DA40BDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A283973-353F-4DCC-BBCD-C98CF6C7847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D18EEC2-743B-47E3-8CD0-9B3567279D3C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Final_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Export_Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,33 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">Revenue 2026 may approach 2020 record
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Szymon Janusz</author>
+  </authors>
+  <commentList>
+    <comment ref="G57" authorId="0" shapeId="0" xr:uid="{958482F4-9784-4CE1-82C1-AC6E1CA70AD8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">Revenue 2026 may approach 2020 record
 </t>
@@ -58,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="187">
   <si>
     <t>Q4</t>
   </si>
@@ -325,6 +352,300 @@
   </si>
   <si>
     <t>The condition of the gaming market in 2026.</t>
+  </si>
+  <si>
+    <t>31.03.2014</t>
+  </si>
+  <si>
+    <t>30.06.2014</t>
+  </si>
+  <si>
+    <t>30.09.2014</t>
+  </si>
+  <si>
+    <t>30.12.2014</t>
+  </si>
+  <si>
+    <t>31.03.2015</t>
+  </si>
+  <si>
+    <t>30.06.2015</t>
+  </si>
+  <si>
+    <t>30.09.2015</t>
+  </si>
+  <si>
+    <t>30.12.2015</t>
+  </si>
+  <si>
+    <t>31.03.2016</t>
+  </si>
+  <si>
+    <t>30.06.2016</t>
+  </si>
+  <si>
+    <t>30.09.2016</t>
+  </si>
+  <si>
+    <t>30.12.2016</t>
+  </si>
+  <si>
+    <t>31.03.2017</t>
+  </si>
+  <si>
+    <t>30.06.2017</t>
+  </si>
+  <si>
+    <t>30.09.2017</t>
+  </si>
+  <si>
+    <t>30.12.2017</t>
+  </si>
+  <si>
+    <t>31.03.2018</t>
+  </si>
+  <si>
+    <t>30.06.2018</t>
+  </si>
+  <si>
+    <t>30.09.2018</t>
+  </si>
+  <si>
+    <t>30.12.2018</t>
+  </si>
+  <si>
+    <t>31.03.2019</t>
+  </si>
+  <si>
+    <t>30.06.2019</t>
+  </si>
+  <si>
+    <t>30.09.2019</t>
+  </si>
+  <si>
+    <t>30.12.2019</t>
+  </si>
+  <si>
+    <t>31.03.2020</t>
+  </si>
+  <si>
+    <t>30.06.2020</t>
+  </si>
+  <si>
+    <t>31.09.2020</t>
+  </si>
+  <si>
+    <t>30.12.2020</t>
+  </si>
+  <si>
+    <t>31.03.2021</t>
+  </si>
+  <si>
+    <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>30.09.2021</t>
+  </si>
+  <si>
+    <t>30.12.2021</t>
+  </si>
+  <si>
+    <t>31.03.2022</t>
+  </si>
+  <si>
+    <t>30.06.2022</t>
+  </si>
+  <si>
+    <t>30.09.2022</t>
+  </si>
+  <si>
+    <t>30.12.2022</t>
+  </si>
+  <si>
+    <t>31.03.2023</t>
+  </si>
+  <si>
+    <t>30.06.2023</t>
+  </si>
+  <si>
+    <t>30.09.2023</t>
+  </si>
+  <si>
+    <t>30.12.2023</t>
+  </si>
+  <si>
+    <t>31.03.2024</t>
+  </si>
+  <si>
+    <t>30.06.2024</t>
+  </si>
+  <si>
+    <t>30.09.2024</t>
+  </si>
+  <si>
+    <t>30.12.2024</t>
+  </si>
+  <si>
+    <t>31.03.2025</t>
+  </si>
+  <si>
+    <t>01.01.2014</t>
+  </si>
+  <si>
+    <t>01.04.2014</t>
+  </si>
+  <si>
+    <t>01.07.2014</t>
+  </si>
+  <si>
+    <t>01.10.2014</t>
+  </si>
+  <si>
+    <t>01.01.2015</t>
+  </si>
+  <si>
+    <t>01.04.2015</t>
+  </si>
+  <si>
+    <t>01.07.2015</t>
+  </si>
+  <si>
+    <t>01.10.2015</t>
+  </si>
+  <si>
+    <t>01.01.2016</t>
+  </si>
+  <si>
+    <t>01.04.2016</t>
+  </si>
+  <si>
+    <t>01.07.2016</t>
+  </si>
+  <si>
+    <t>01.10.2016</t>
+  </si>
+  <si>
+    <t>01.01.2017</t>
+  </si>
+  <si>
+    <t>01.04.2017</t>
+  </si>
+  <si>
+    <t>01.07.2017</t>
+  </si>
+  <si>
+    <t>01.10.2017</t>
+  </si>
+  <si>
+    <t>01.01.2018</t>
+  </si>
+  <si>
+    <t>01.04.2018</t>
+  </si>
+  <si>
+    <t>01.07.2018</t>
+  </si>
+  <si>
+    <t>01.10.2018</t>
+  </si>
+  <si>
+    <t>01.01.2019</t>
+  </si>
+  <si>
+    <t>01.04.2019</t>
+  </si>
+  <si>
+    <t>01.07.2019</t>
+  </si>
+  <si>
+    <t>01.10.2019</t>
+  </si>
+  <si>
+    <t>01.01.2020</t>
+  </si>
+  <si>
+    <t>01.04.2020</t>
+  </si>
+  <si>
+    <t>01.07.2020</t>
+  </si>
+  <si>
+    <t>01.10.2020</t>
+  </si>
+  <si>
+    <t>01.01.2021</t>
+  </si>
+  <si>
+    <t>01.04.2021</t>
+  </si>
+  <si>
+    <t>01.07.2021</t>
+  </si>
+  <si>
+    <t>01.10.2021</t>
+  </si>
+  <si>
+    <t>01.01.2022</t>
+  </si>
+  <si>
+    <t>01.04.2022</t>
+  </si>
+  <si>
+    <t>01.07.2022</t>
+  </si>
+  <si>
+    <t>01.10.2022</t>
+  </si>
+  <si>
+    <t>01.01.2023</t>
+  </si>
+  <si>
+    <t>01.04.2023</t>
+  </si>
+  <si>
+    <t>01.07.2023</t>
+  </si>
+  <si>
+    <t>01.10.2023</t>
+  </si>
+  <si>
+    <t>01.01.2024</t>
+  </si>
+  <si>
+    <t>01.04.2024</t>
+  </si>
+  <si>
+    <t>01.07.2024</t>
+  </si>
+  <si>
+    <t>01.10.2024</t>
+  </si>
+  <si>
+    <t>01.01.2025</t>
+  </si>
+  <si>
+    <t>Start_date</t>
+  </si>
+  <si>
+    <t>End_date</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Total _revenue</t>
+  </si>
+  <si>
+    <t>QoQ_growth</t>
+  </si>
+  <si>
+    <t>YoY_growth</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>NextGen update for consoles</t>
   </si>
 </sst>
 </file>
@@ -334,7 +655,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\+0.0%;\-0.0%;0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,9 +672,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial CE"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -376,19 +721,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -510,145 +849,200 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny_bilans_przekształceń" xfId="1" xr:uid="{BF2D9E06-CB56-4296-8147-A440BD0A7AE7}"/>
-    <cellStyle name="Procentowy" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -671,7 +1065,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -769,10 +1163,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CAECAF42-CA58-4D2A-B237-611478A13D51}" type="CELLRANGE">
+                    <a:fld id="{529A0B1E-D35B-4838-A8E0-729DE0F00FAE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -802,10 +1196,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A3B995C-EAEA-428F-A03C-41038028AD78}" type="CELLRANGE">
+                    <a:fld id="{929D82AF-7D38-46A1-AC28-7F9D45D8040A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -846,10 +1240,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CAB0A438-39BA-4B44-9DEE-E3BF12733334}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{A9E39072-70E2-44FB-9E91-86483E1D7E7D}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -909,10 +1303,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{249A4790-0730-4183-BF43-A13FFB711F74}" type="CELLRANGE">
+                    <a:fld id="{00E7F480-E5A3-4EC2-9BD6-088A08C351C1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -943,10 +1337,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14D95C14-36CC-4F5E-ABA0-81939D4A1DBC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9D8F7D08-B0F4-4C63-8FD0-2BDDA7B977B1}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -976,10 +1370,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B77BD92-0D90-445C-9FE9-11FA71819032}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{130F59D1-83B9-46E9-A18E-A52551F1AB58}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -1054,10 +1448,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A185950D-E25C-4F9E-A888-AF5631594C30}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F81F4933-987B-4B21-9383-1322AD85E578}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -1087,10 +1481,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C9518BA-0E75-47F7-984B-9B1FF60233A8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{A4F33E1F-0166-4088-8F82-5495A4359E51}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -1120,10 +1514,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E15197D-6BEC-4E7C-AAAE-5A3FA7819BAA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{90F8F27F-F229-4EC2-A22C-F5A5E47AEE2C}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -1153,10 +1547,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A2BCF2D-5D6E-4321-88D0-935EE4828D56}" type="CELLRANGE">
+                    <a:fld id="{8098E1E2-0E1A-4584-BAE6-8073D583D324}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -1245,11 +1639,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Arkusz1!$A$30:$B$48</c15:sqref>
+                    <c15:sqref>Final_Data!$A$30:$B$48</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Arkusz1!$A$30:$B$45,Arkusz1!$A$48:$B$48)</c:f>
+              <c:f>(Final_Data!$A$30:$B$45,Final_Data!$A$48:$B$48)</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="17"/>
                 <c:lvl>
@@ -1366,11 +1760,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Arkusz1!$D$30:$D$48</c15:sqref>
+                    <c15:sqref>Final_Data!$D$30:$D$48</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Arkusz1!$D$30:$D$45,Arkusz1!$D$48)</c:f>
+              <c:f>(Final_Data!$D$30:$D$45,Final_Data!$D$48)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1432,7 +1826,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Arkusz1!$H$30:$H$48</c15:f>
+                <c15:f>Final_Data!$H$30:$H$48</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="19"/>
                   <c:pt idx="1">
@@ -1620,7 +2014,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1720,10 +2114,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5AE93CF7-711A-4E41-A119-C310108652CA}" type="CELLRANGE">
+                    <a:fld id="{660CD274-FD2D-45E1-A3AD-0669CC034152}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -1753,10 +2147,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8AB21BFC-2447-4E66-941E-3DB6A4E95DFF}" type="CELLRANGE">
+                    <a:fld id="{B9D45924-5179-42D9-86CE-A29A52B95053}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -1787,10 +2181,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{586C87E8-706A-42CA-859C-0008A8EB7951}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{76F000CC-1A22-40A5-B7DB-B58640321C4D}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -1835,7 +2229,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{076CA3C0-10FD-4272-ABC3-4F6F406A12CF}" type="CELLRANGE">
+                    <a:fld id="{469E5769-69E9-4930-AD23-F14B93B4B52E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1">
@@ -1848,7 +2242,7 @@
                           <a:latin typeface="D-DIN" panose="020B0504030202030204" pitchFamily="34" charset="0"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -1917,10 +2311,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAAD7C44-5BEE-4166-AD1E-DDB94433D9E6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{37485C10-532B-43B2-B760-00F0D9892AA1}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -1950,10 +2344,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CB6F364-CAFE-4391-8F69-02E3F842AB3C}" type="CELLRANGE">
+                    <a:fld id="{26C6E922-6B3A-4540-AECD-111F4138E5BF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -1984,10 +2378,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E0125E4-5914-4935-9245-B3889EAA1F1F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D25D9D6C-1BF0-49CB-BA75-19AFBCD8FAB5}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -2017,10 +2411,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0873FC1-CFD4-4241-9E3D-DC9FF163E87D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{DEA80E60-10D9-40CE-9D6C-DCAC26A33EAC}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -2050,10 +2444,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5264B0B2-BDB6-47A8-80D7-A1025DD9F9DD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D795F36B-30DE-45BB-9C2D-593694215944}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -2083,10 +2477,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30E39082-2D8D-4A8B-8ED0-9E91AA190DB7}" type="CELLRANGE">
+                    <a:fld id="{7C969DB5-6787-4BD1-B76F-E9F39C1254BC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -2117,10 +2511,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{414632CC-45EC-40C8-9A40-5B87446B6F69}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E85D5BBF-D0EB-4D19-B361-4285F5321616}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -2150,10 +2544,10 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3051B2E5-B9D9-4A73-A7EA-3A1414D58D64}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{125C193A-E302-47EC-868C-97C9B0FCBE82}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
@@ -2250,7 +2644,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Arkusz1!$A$8:$B$20</c:f>
+              <c:f>Final_Data!$A$8:$B$20</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="13"/>
                 <c:lvl>
@@ -2340,7 +2734,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$D$8:$D$20</c:f>
+              <c:f>Final_Data!$D$8:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2390,7 +2784,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Arkusz1!$H$8:$H$19</c15:f>
+                <c15:f>Final_Data!$H$8:$H$19</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="12"/>
                   <c:pt idx="1">
@@ -2581,7 +2975,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2689,7 +3083,7 @@
           </c:trendline>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Arkusz1!$A$49:$B$55</c:f>
+              <c:f>Final_Data!$A$49:$B$55</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -2743,7 +3137,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$D$49:$D$55</c:f>
+              <c:f>Final_Data!$D$49:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2948,7 +3342,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3064,7 +3458,7 @@
           </c:trendline>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>(Arkusz1!$A$57:$B$60,Arkusz1!$A$49:$B$51)</c:f>
+              <c:f>(Final_Data!$A$57:$B$60,Final_Data!$A$49:$B$51)</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -3118,7 +3512,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Arkusz1!$D$49:$D$51,Arkusz1!$D$57:$D$60)</c:f>
+              <c:f>(Final_Data!$D$49:$D$51,Final_Data!$D$57:$D$60)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5700,9 +6094,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5740,7 +6134,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5846,7 +6240,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5998,1308 +6392,1294 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35AC366-2D3E-4E52-ABAC-A0D15C43BCFC}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="27" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="11" style="27" customWidth="1"/>
-    <col min="8" max="8" width="39.140625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="6.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="11" style="25" customWidth="1"/>
+    <col min="8" max="8" width="40.42578125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <v>2014</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="3">
         <v>4801</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11">
+      <c r="E2" s="26"/>
+      <c r="F2" s="48">
         <v>21513</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>2014</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="3">
         <v>7565</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="26">
         <v>0.57571339304311597</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="13"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>2014</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="3">
         <v>2775</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="26">
         <v>-0.63317911434236618</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="13"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>2014</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="3">
         <v>6372</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="26">
         <v>1.2962162162162163</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="11">
         <v>2015</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="8">
         <v>2857</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="26">
         <v>-0.5516321406151915</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="48">
         <v>630856</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="51">
         <v>28.324408497187701</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="11">
         <v>2015</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="3">
         <v>406248</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="26">
         <v>141.19390969548476</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="11">
         <v>2015</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="3">
         <v>85022</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="26">
         <v>-0.79071404659222932</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="13"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="11">
         <v>2015</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="3">
         <v>136729</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="26">
         <v>0.60816024087883136</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="13" t="s">
+      <c r="F9" s="50"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="11">
         <v>2016</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="3">
         <v>63667</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="26">
         <v>-0.53435628140335989</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="48">
         <v>438763</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="51">
         <v>-0.30449579618803657</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="11">
         <v>2016</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="3">
         <v>175537</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="26">
         <v>1.7571112193129879</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="13" t="s">
+      <c r="F11" s="49"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="11">
         <v>2016</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="3">
         <v>72418</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="26">
         <v>-0.58744879996809785</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="13"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="11">
         <v>2016</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="3">
         <v>127141</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="26">
         <v>0.75565467149051346</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="13" t="s">
+      <c r="F13" s="50"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="11">
         <v>2017</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="3">
         <v>77710</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="26">
         <v>-0.38878882500530909</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="48">
         <v>346841</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="51">
         <v>-0.2095026244236638</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="11">
         <v>2017</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="3">
         <v>121911</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="26">
         <v>0.56879423497619352</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="13"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="11">
         <v>2017</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="3">
         <v>59087</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="26">
         <v>-0.51532675476372103</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="13"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="11">
         <v>2017</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="3">
         <v>88133</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="26">
         <v>0.49158021222942438</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="13" t="s">
+      <c r="F17" s="50"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="11">
         <v>2018</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="3">
         <v>52217</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="26">
         <v>-0.40752045204406978</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="48">
         <v>235919</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="51">
         <v>-0.31980648193264349</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="11">
         <v>2018</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="3">
         <v>56555</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="26">
         <v>8.3076392745657548E-2</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="13"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="10">
         <v>2018</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="3">
         <v>40675</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="26">
         <v>-0.28078861285474316</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="13"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="11">
         <v>2018</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="3">
         <v>86472</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="26">
         <v>1.1259250153657037</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="13"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="10">
         <v>2019</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="3">
         <v>50870</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="26">
         <v>-0.41171708761217501</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="48">
         <v>304475</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="51">
         <v>0.2905912622552656</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="10">
         <v>2019</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="3">
         <v>58905</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="26">
         <v>0.15795164143896206</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="24" t="s">
+      <c r="F23" s="49"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="10">
         <v>2019</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="3">
         <v>47147</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="26">
         <v>-0.19960954078601137</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="13"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="10">
         <v>2019</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="3">
         <v>147553</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="26">
         <v>2.1296370924979322</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="13"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="11">
         <v>2020</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="3">
         <v>137220</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="26">
         <v>-7.0029074298726554E-2</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="48">
         <v>1839932</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="51">
         <v>5.0429657607356928</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="11">
         <v>2020</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="3">
         <v>100445</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="26">
         <v>-0.26800029150269639</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="13" t="s">
+      <c r="F27" s="49"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="11">
         <v>2020</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="3">
         <v>61902</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="26">
         <v>-0.38372243516352234</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="13" t="s">
+      <c r="F28" s="49"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="11">
         <v>2020</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="4">
         <v>1540365</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="26">
         <v>23.883929436851798</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="26" t="s">
+      <c r="F29" s="50"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="11">
         <v>2021</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="4">
         <v>145868</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="26">
         <v>-0.90530296390790499</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="48">
         <v>691564</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="51">
         <v>-0.62413610937795527</v>
       </c>
-      <c r="H30" s="26"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="11">
         <v>2021</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="4">
         <v>221118</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="26">
         <v>0.51587736857981192</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="26" t="s">
+      <c r="F31" s="49"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="11">
         <v>2021</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="4">
         <v>104262</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="26">
         <v>-0.52847800721786553</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="26" t="s">
+      <c r="F32" s="49"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="11">
         <v>2021</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="4">
         <v>220316</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="26">
         <v>1.1130996911626478</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="26"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
+      <c r="A34" s="11">
         <v>2022</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="4">
         <v>173787</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="26">
         <v>-0.21119210588427531</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="48">
         <v>767499</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="51">
         <v>0.10980184046595833</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="11">
         <v>2022</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="4">
         <v>112081</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="26">
         <v>-0.35506683468844047</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="26" t="s">
+      <c r="F35" s="49"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
+      <c r="A36" s="11">
         <v>2022</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="4">
         <v>203189</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="26">
         <v>0.81287640188792032</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="26" t="s">
+      <c r="F36" s="49"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
+      <c r="A37" s="11">
         <v>2022</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="4">
         <v>278442</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="26">
         <v>0.37035961592409039</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="26" t="s">
+      <c r="F37" s="50"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+      <c r="A38" s="11">
         <v>2023</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="4">
         <v>130595</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="26">
         <v>-0.53097952176754948</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="48">
         <v>1041784</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="51">
         <v>0.35737505846913153</v>
       </c>
-      <c r="H38" s="26"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="11">
         <v>2023</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="4">
         <v>107489</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="26">
         <v>-0.17692867261380604</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="26"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+      <c r="A40" s="11">
         <v>2023</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="4">
         <v>390534</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="26">
         <v>2.6332461926336648</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="26" t="s">
+      <c r="F40" s="49"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18">
+      <c r="A41" s="11">
         <v>2023</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="4">
         <v>413166</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="26">
         <v>5.7951420362887737E-2</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="26" t="s">
+      <c r="F41" s="50"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18">
+      <c r="A42" s="11">
         <v>2024</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="4">
         <v>185591</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="26">
         <v>-0.55080766568401074</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="48">
         <v>797396</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="51">
         <v>-0.23458605622662662</v>
       </c>
-      <c r="H42" s="26"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
+      <c r="A43" s="11">
         <v>2024</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="4">
         <v>157238</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="26">
         <v>-0.15277141671740549</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="26"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18">
+      <c r="A44" s="11">
         <v>2024</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="4">
         <v>180158</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="26">
         <v>0.14576629059133289</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="26"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="10">
         <v>2024</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="3">
         <v>274409</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="26">
         <v>0.523157450682179</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="13" t="s">
+      <c r="F45" s="50"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
+      <c r="A48" s="9">
         <v>2025</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="12">
         <v>179832</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="27">
         <v>-3.1030599544158929E-2</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="57">
         <v>724803.4475924049</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="60">
         <v>-9.1037015996562679E-2</v>
       </c>
-      <c r="H48" s="19"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="33">
+      <c r="A49" s="21">
         <v>2025</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49" s="18">
         <v>215752.12872392911</v>
       </c>
-      <c r="E49" s="37">
+      <c r="E49" s="28">
         <v>0.3610494961878527</v>
       </c>
-      <c r="F49" s="38"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="34"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33">
+      <c r="A50" s="21">
         <v>2025</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D50" s="18">
         <v>121531.06890325664</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="28">
         <v>0.36100002675542653</v>
       </c>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="34"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33">
+      <c r="A51" s="21">
         <v>2025</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="18">
         <v>207688.24996521923</v>
       </c>
-      <c r="E51" s="37">
+      <c r="E51" s="28">
         <v>-0.18170719056843873</v>
       </c>
-      <c r="F51" s="40"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="42"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="19"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43">
+      <c r="A52" s="29">
         <v>2026</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="18">
         <v>148430.38993153075</v>
       </c>
-      <c r="E52" s="37">
+      <c r="E52" s="28">
         <v>0.21185592994506547</v>
       </c>
-      <c r="F52" s="31">
+      <c r="F52" s="57">
         <v>653194.66418511141</v>
       </c>
-      <c r="G52" s="32">
+      <c r="G52" s="60">
         <v>-9.8797520410751238E-2</v>
       </c>
-      <c r="H52" s="34"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43">
+      <c r="A53" s="29">
         <v>2026</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="18">
         <v>198087.63740002186</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="28">
         <v>-7.5556123975874731E-2</v>
       </c>
-      <c r="F53" s="38"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="34"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43">
+      <c r="A54" s="29">
         <v>2026</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="18">
         <v>122713.79697460329</v>
       </c>
-      <c r="E54" s="37">
+      <c r="E54" s="28">
         <v>-0.21318964151211378</v>
       </c>
-      <c r="F54" s="38"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="34"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43">
+      <c r="A55" s="29">
         <v>2026</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="18">
         <v>183962.83987895545</v>
       </c>
-      <c r="E55" s="37">
+      <c r="E55" s="28">
         <v>-4.6530060564736131E-2</v>
       </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="34"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="33">
+      <c r="A57" s="21">
         <v>2026</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="18">
         <v>155665.94480820085</v>
       </c>
-      <c r="E57" s="37">
+      <c r="E57" s="28">
         <v>-0.13438128470905708</v>
       </c>
-      <c r="F57" s="31">
+      <c r="F57" s="57">
         <v>1288316.1379912619</v>
       </c>
-      <c r="G57" s="32">
+      <c r="G57" s="60">
         <v>0.97233108080956543</v>
       </c>
-      <c r="H57" s="34"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="33">
+      <c r="A58" s="21">
         <v>2026</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="18">
         <v>755745.84061898128</v>
       </c>
-      <c r="E58" s="37">
+      <c r="E58" s="28">
         <v>2.502843031440094</v>
       </c>
-      <c r="F58" s="38"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="34" t="s">
+      <c r="F58" s="58"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="33">
+      <c r="A59" s="21">
         <v>2026</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="36">
+      <c r="D59" s="18">
         <v>139845.525722438</v>
       </c>
-      <c r="E59" s="37">
+      <c r="E59" s="28">
         <v>0.15069773502741254</v>
       </c>
-      <c r="F59" s="38"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="34"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="33">
+      <c r="A60" s="21">
         <v>2026</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="36">
+      <c r="D60" s="18">
         <v>237058.82684164197</v>
       </c>
-      <c r="E60" s="37">
+      <c r="E60" s="28">
         <v>0.14141665155029867</v>
       </c>
-      <c r="F60" s="40"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="34"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="20" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="F14:F17"/>
     <mergeCell ref="F57:F60"/>
     <mergeCell ref="G57:G60"/>
     <mergeCell ref="G38:G41"/>
@@ -7314,6 +7694,20 @@
     <mergeCell ref="G52:G55"/>
     <mergeCell ref="F42:F45"/>
     <mergeCell ref="G42:G45"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G18:G21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7321,4 +7715,1325 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74B5951-2196-4AE8-99D8-F1C1F1BF0DAD}">
+  <dimension ref="A1:I64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="25"/>
+    <col min="3" max="4" width="13.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="11" style="25" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="10">
+        <v>4801</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7565</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.57571339304311597</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2775</v>
+      </c>
+      <c r="F4" s="26">
+        <v>-0.63317911434236618</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="10">
+        <v>6372</v>
+      </c>
+      <c r="F5" s="26">
+        <v>1.2962162162162163</v>
+      </c>
+      <c r="G5" s="45">
+        <v>21513</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="43">
+        <v>2857</v>
+      </c>
+      <c r="F6" s="26">
+        <v>-0.5516321406151915</v>
+      </c>
+      <c r="G6" s="45"/>
+      <c r="H6" s="47">
+        <v>28.324408497187701</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="10">
+        <v>406248</v>
+      </c>
+      <c r="F7" s="26">
+        <v>141.19390969548476</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="10">
+        <v>85022</v>
+      </c>
+      <c r="F8" s="26">
+        <v>-0.79071404659222932</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="10">
+        <v>136729</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.60816024087883136</v>
+      </c>
+      <c r="G9" s="45">
+        <v>630856</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="10">
+        <v>63667</v>
+      </c>
+      <c r="F10" s="26">
+        <v>-0.53435628140335989</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="47">
+        <v>-0.30449579618803657</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="10">
+        <v>175537</v>
+      </c>
+      <c r="F11" s="26">
+        <v>1.7571112193129879</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="10">
+        <v>72418</v>
+      </c>
+      <c r="F12" s="26">
+        <v>-0.58744879996809785</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10">
+        <v>127141</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0.75565467149051346</v>
+      </c>
+      <c r="G13" s="45">
+        <v>438763</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="10">
+        <v>77710</v>
+      </c>
+      <c r="F14" s="26">
+        <v>-0.38878882500530909</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="47">
+        <v>-0.2095026244236638</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="10">
+        <v>121911</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0.56879423497619352</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="10">
+        <v>59087</v>
+      </c>
+      <c r="F16" s="26">
+        <v>-0.51532675476372103</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="10">
+        <v>88133</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0.49158021222942438</v>
+      </c>
+      <c r="G17" s="45">
+        <v>346841</v>
+      </c>
+      <c r="H17" s="47"/>
+      <c r="I17" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="10">
+        <v>52217</v>
+      </c>
+      <c r="F18" s="26">
+        <v>-0.40752045204406978</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="47">
+        <v>-0.31980648193264349</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="10">
+        <v>56555</v>
+      </c>
+      <c r="F19" s="26">
+        <v>8.3076392745657548E-2</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="10">
+        <v>40675</v>
+      </c>
+      <c r="F20" s="26">
+        <v>-0.28078861285474316</v>
+      </c>
+      <c r="G20" s="45"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="10">
+        <v>86472</v>
+      </c>
+      <c r="F21" s="26">
+        <v>1.1259250153657037</v>
+      </c>
+      <c r="G21" s="45">
+        <v>235919</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="10">
+        <v>50870</v>
+      </c>
+      <c r="F22" s="26">
+        <v>-0.41171708761217501</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="47">
+        <v>0.2905912622552656</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="10">
+        <v>58905</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0.15795164143896206</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="10">
+        <v>47147</v>
+      </c>
+      <c r="F24" s="26">
+        <v>-0.19960954078601137</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="10">
+        <v>147553</v>
+      </c>
+      <c r="F25" s="26">
+        <v>2.1296370924979322</v>
+      </c>
+      <c r="G25" s="45">
+        <v>304475</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="10">
+        <v>137220</v>
+      </c>
+      <c r="F26" s="26">
+        <v>-7.0029074298726554E-2</v>
+      </c>
+      <c r="G26" s="45"/>
+      <c r="H26" s="47">
+        <v>5.0429657607356928</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="10">
+        <v>100445</v>
+      </c>
+      <c r="F27" s="26">
+        <v>-0.26800029150269639</v>
+      </c>
+      <c r="G27" s="45"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="10">
+        <v>61902</v>
+      </c>
+      <c r="F28" s="26">
+        <v>-0.38372243516352234</v>
+      </c>
+      <c r="G28" s="45"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1540365</v>
+      </c>
+      <c r="F29" s="26">
+        <v>23.883929436851798</v>
+      </c>
+      <c r="G29" s="45">
+        <v>1839932</v>
+      </c>
+      <c r="H29" s="47"/>
+      <c r="I29" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="11">
+        <v>145868</v>
+      </c>
+      <c r="F30" s="26">
+        <v>-0.90530296390790499</v>
+      </c>
+      <c r="G30" s="45"/>
+      <c r="H30" s="47">
+        <v>-0.62413610937795527</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="11">
+        <v>221118</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0.51587736857981192</v>
+      </c>
+      <c r="G31" s="45"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="11">
+        <v>104262</v>
+      </c>
+      <c r="F32" s="26">
+        <v>-0.52847800721786553</v>
+      </c>
+      <c r="G32" s="45"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="11">
+        <v>220316</v>
+      </c>
+      <c r="F33" s="26">
+        <v>1.1130996911626478</v>
+      </c>
+      <c r="G33" s="45">
+        <v>691564</v>
+      </c>
+      <c r="H33" s="47"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="11">
+        <v>173787</v>
+      </c>
+      <c r="F34" s="26">
+        <v>-0.21119210588427531</v>
+      </c>
+      <c r="G34" s="45"/>
+      <c r="H34" s="47">
+        <v>0.10980184046595833</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="11">
+        <v>112081</v>
+      </c>
+      <c r="F35" s="26">
+        <v>-0.35506683468844047</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="11">
+        <v>203189</v>
+      </c>
+      <c r="F36" s="26">
+        <v>0.81287640188792032</v>
+      </c>
+      <c r="G36" s="45"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="11">
+        <v>278442</v>
+      </c>
+      <c r="F37" s="26">
+        <v>0.37035961592409039</v>
+      </c>
+      <c r="G37" s="45">
+        <v>767499</v>
+      </c>
+      <c r="H37" s="47"/>
+      <c r="I37" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="11">
+        <v>130595</v>
+      </c>
+      <c r="F38" s="26">
+        <v>-0.53097952176754948</v>
+      </c>
+      <c r="G38" s="45"/>
+      <c r="H38" s="47">
+        <v>0.35737505846913153</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="11">
+        <v>107489</v>
+      </c>
+      <c r="F39" s="26">
+        <v>-0.17692867261380604</v>
+      </c>
+      <c r="G39" s="45"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="11">
+        <v>390534</v>
+      </c>
+      <c r="F40" s="26">
+        <v>2.6332461926336648</v>
+      </c>
+      <c r="G40" s="45"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="11">
+        <v>413166</v>
+      </c>
+      <c r="F41" s="26">
+        <v>5.7951420362887737E-2</v>
+      </c>
+      <c r="G41" s="45">
+        <v>1041784</v>
+      </c>
+      <c r="H41" s="47"/>
+      <c r="I41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="11">
+        <v>185591</v>
+      </c>
+      <c r="F42" s="26">
+        <v>-0.55080766568401074</v>
+      </c>
+      <c r="G42" s="45"/>
+      <c r="H42" s="47">
+        <v>-0.23458605622662662</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="11">
+        <v>157238</v>
+      </c>
+      <c r="F43" s="26">
+        <v>-0.15277141671740549</v>
+      </c>
+      <c r="G43" s="45"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="11">
+        <v>180158</v>
+      </c>
+      <c r="F44" s="26">
+        <v>0.14576629059133289</v>
+      </c>
+      <c r="G44" s="45"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="10">
+        <v>274409</v>
+      </c>
+      <c r="F45" s="26">
+        <v>0.523157450682179</v>
+      </c>
+      <c r="G45" s="45">
+        <v>797396</v>
+      </c>
+      <c r="H45" s="47"/>
+      <c r="I45" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="11">
+        <v>179832</v>
+      </c>
+      <c r="F46" s="27">
+        <v>-3.1030599544158929E-2</v>
+      </c>
+      <c r="G46" s="45"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="G47" s="44"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="20"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>